--- a/plan.xlsx
+++ b/plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="100">
   <si>
     <t>Logo</t>
   </si>
@@ -305,19 +305,35 @@
   </si>
   <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>Attendance Policy</t>
+  </si>
+  <si>
+    <t>Submit excuse for CCA</t>
+  </si>
+  <si>
+    <t>text box here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -820,10 +836,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -950,17 +970,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -971,46 +1129,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1022,15 +1228,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1040,188 +1237,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1516,218 +1538,218 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AS100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C32"/>
+    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="AA53" sqref="AA53:AD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:45" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:45" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="82"/>
-      <c r="Q2" s="78" t="s">
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
+      <c r="Q2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="80" t="s">
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="82"/>
-      <c r="AF2" s="78" t="s">
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="68"/>
+      <c r="AF2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="80" t="s">
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AQ2" s="81"/>
-      <c r="AR2" s="81"/>
-      <c r="AS2" s="82"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="68"/>
     </row>
     <row r="3" spans="2:45">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="84"/>
       <c r="L3" s="69"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="83"/>
-      <c r="Q3" s="120" t="s">
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="Q3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="121"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="92"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="84"/>
       <c r="AA3" s="69"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="83"/>
-      <c r="AF3" s="87" t="s">
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="71"/>
+      <c r="AF3" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="91"/>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="92"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="151"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="84"/>
       <c r="AP3" s="69"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="83"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="71"/>
     </row>
     <row r="4" spans="2:45">
-      <c r="B4" s="123"/>
-      <c r="C4" s="124"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="97"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="69"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="83"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="124"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="71"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="81"/>
       <c r="S4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="96"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="97"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="87"/>
       <c r="AA4" s="69"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="83"/>
-      <c r="AF4" s="93" t="s">
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="71"/>
+      <c r="AF4" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="97"/>
+      <c r="AG4" s="153"/>
+      <c r="AH4" s="154"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="87"/>
       <c r="AP4" s="69"/>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="83"/>
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="70"/>
+      <c r="AS4" s="71"/>
     </row>
     <row r="5" spans="2:45" ht="15.75" thickBot="1">
-      <c r="B5" s="123"/>
-      <c r="C5" s="124"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="86"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="124"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="74"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="81"/>
       <c r="S5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="96"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="86"/>
-      <c r="AF5" s="98" t="s">
+      <c r="T5" s="85"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="74"/>
+      <c r="AF5" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="100"/>
-      <c r="AI5" s="96"/>
-      <c r="AJ5" s="73"/>
-      <c r="AK5" s="73"/>
-      <c r="AL5" s="73"/>
-      <c r="AM5" s="73"/>
-      <c r="AN5" s="73"/>
-      <c r="AO5" s="97"/>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="85"/>
-      <c r="AR5" s="85"/>
-      <c r="AS5" s="86"/>
+      <c r="AG5" s="121"/>
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="87"/>
+      <c r="AP5" s="72"/>
+      <c r="AQ5" s="73"/>
+      <c r="AR5" s="73"/>
+      <c r="AS5" s="74"/>
     </row>
     <row r="6" spans="2:45" ht="15.75" thickBot="1">
       <c r="B6" s="27"/>
@@ -1822,78 +1844,78 @@
       <c r="AS6" s="3"/>
     </row>
     <row r="7" spans="2:45" ht="15.75" thickBot="1">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="75" t="s">
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="77"/>
-      <c r="Q7" s="75" t="s">
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="99"/>
+      <c r="Q7" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="75" t="s">
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="77"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="99"/>
       <c r="AF7" s="31"/>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="AH7" s="76"/>
-      <c r="AI7" s="76"/>
-      <c r="AJ7" s="76"/>
-      <c r="AK7" s="76"/>
-      <c r="AL7" s="76"/>
-      <c r="AM7" s="76"/>
-      <c r="AN7" s="76"/>
-      <c r="AO7" s="76"/>
-      <c r="AP7" s="76"/>
-      <c r="AQ7" s="76"/>
-      <c r="AR7" s="77"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="98"/>
+      <c r="AO7" s="98"/>
+      <c r="AP7" s="98"/>
+      <c r="AQ7" s="98"/>
+      <c r="AR7" s="99"/>
       <c r="AS7" s="20"/>
     </row>
     <row r="8" spans="2:45">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="92"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="84"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -1904,10 +1926,10 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="11"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="92"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="84"/>
       <c r="AF8" s="21"/>
       <c r="AG8" s="31"/>
       <c r="AH8" s="19"/>
@@ -1925,39 +1947,39 @@
     </row>
     <row r="9" spans="2:45" ht="15" customHeight="1">
       <c r="B9" s="69"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="140" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="97"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="87"/>
       <c r="Q9" s="12"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="103"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="128"/>
       <c r="U9" s="13" t="s">
         <v>46</v>
       </c>
       <c r="V9" s="13"/>
-      <c r="W9" s="66" t="s">
+      <c r="W9" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
       <c r="Z9" s="14"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="97"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="87"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="21" t="s">
         <v>71</v>
@@ -1998,34 +2020,34 @@
       <c r="AS9" s="22"/>
     </row>
     <row r="10" spans="2:45">
-      <c r="B10" s="152"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="97"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="87"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
       <c r="Z10" s="14"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="97"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="87"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="21" t="s">
         <v>72</v>
@@ -2067,35 +2089,35 @@
     </row>
     <row r="11" spans="2:45">
       <c r="B11" s="21"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="97"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="87"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="103"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="128"/>
       <c r="U11" s="13" t="s">
         <v>47</v>
       </c>
       <c r="V11" s="13"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
       <c r="Z11" s="14"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="97"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="87"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
       <c r="AH11" s="32"/>
@@ -2104,7 +2126,7 @@
       <c r="AK11" s="32"/>
       <c r="AL11" s="32"/>
       <c r="AM11" s="32"/>
-      <c r="AN11" s="68" t="s">
+      <c r="AN11" s="70" t="s">
         <v>84</v>
       </c>
       <c r="AO11" s="32"/>
@@ -2115,35 +2137,35 @@
     </row>
     <row r="12" spans="2:45">
       <c r="B12" s="21"/>
-      <c r="C12" s="148" t="s">
+      <c r="C12" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="149"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="97"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="87"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
       <c r="Z12" s="14"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="97"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="87"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="21" t="s">
         <v>74</v>
@@ -2154,7 +2176,7 @@
       <c r="AK12" s="32"/>
       <c r="AL12" s="60"/>
       <c r="AM12" s="32"/>
-      <c r="AN12" s="68"/>
+      <c r="AN12" s="70"/>
       <c r="AO12" s="32"/>
       <c r="AP12" s="32"/>
       <c r="AQ12" s="32"/>
@@ -2163,55 +2185,55 @@
     </row>
     <row r="13" spans="2:45">
       <c r="B13" s="21"/>
-      <c r="C13" s="148" t="s">
+      <c r="C13" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="149"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="97"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="87"/>
       <c r="Q13" s="12"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="103"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="128"/>
       <c r="U13" s="13" t="s">
         <v>48</v>
       </c>
       <c r="V13" s="13"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
       <c r="Z13" s="14"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="73"/>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="97"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="87"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="AH13" s="66" t="s">
+      <c r="AH13" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="AI13" s="66" t="s">
+      <c r="AI13" s="111" t="s">
         <v>85</v>
       </c>
       <c r="AJ13" s="32"/>
       <c r="AK13" s="32"/>
       <c r="AL13" s="32"/>
       <c r="AM13" s="32"/>
-      <c r="AN13" s="68"/>
+      <c r="AN13" s="70"/>
       <c r="AO13" s="32"/>
       <c r="AP13" s="32"/>
-      <c r="AQ13" s="66" t="s">
+      <c r="AQ13" s="111" t="s">
         <v>86</v>
       </c>
       <c r="AR13" s="22"/>
@@ -2219,83 +2241,83 @@
     </row>
     <row r="14" spans="2:45">
       <c r="B14" s="21"/>
-      <c r="C14" s="148" t="s">
+      <c r="C14" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="149"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="97"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="87"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
       <c r="Z14" s="14"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="97"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="87"/>
       <c r="AF14" s="21"/>
       <c r="AG14" s="69"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="111"/>
       <c r="AJ14" s="32"/>
       <c r="AK14" s="32"/>
       <c r="AL14" s="32"/>
       <c r="AM14" s="32"/>
-      <c r="AN14" s="68"/>
+      <c r="AN14" s="70"/>
       <c r="AO14" s="32"/>
       <c r="AP14" s="32"/>
-      <c r="AQ14" s="66"/>
+      <c r="AQ14" s="111"/>
       <c r="AR14" s="22"/>
       <c r="AS14" s="22"/>
     </row>
     <row r="15" spans="2:45">
       <c r="B15" s="21"/>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="151"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="97"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="87"/>
       <c r="Q15" s="12"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="103"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="141"/>
+      <c r="T15" s="128"/>
       <c r="U15" s="13" t="s">
         <v>50</v>
       </c>
       <c r="V15" s="13"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
       <c r="Z15" s="14"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="73"/>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="97"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="87"/>
       <c r="AF15" s="21"/>
       <c r="AG15" s="69" t="s">
         <v>76</v>
@@ -2306,7 +2328,7 @@
       <c r="AK15" s="32"/>
       <c r="AL15" s="32"/>
       <c r="AM15" s="32"/>
-      <c r="AN15" s="68"/>
+      <c r="AN15" s="70"/>
       <c r="AO15" s="32"/>
       <c r="AP15" s="32"/>
       <c r="AQ15" s="32"/>
@@ -2314,53 +2336,53 @@
       <c r="AS15" s="22"/>
     </row>
     <row r="16" spans="2:45">
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="97"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="87"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
       <c r="Z16" s="14"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="97"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="86"/>
+      <c r="AD16" s="87"/>
       <c r="AF16" s="21"/>
       <c r="AG16" s="69"/>
       <c r="AH16" s="32"/>
-      <c r="AI16" s="66" t="s">
+      <c r="AI16" s="111" t="s">
         <v>82</v>
       </c>
       <c r="AJ16" s="32"/>
-      <c r="AK16" s="66" t="s">
+      <c r="AK16" s="111" t="s">
         <v>82</v>
       </c>
       <c r="AL16" s="32"/>
-      <c r="AM16" s="66" t="s">
+      <c r="AM16" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="AN16" s="68"/>
+      <c r="AN16" s="70"/>
       <c r="AO16" s="32"/>
-      <c r="AP16" s="66" t="s">
+      <c r="AP16" s="111" t="s">
         <v>82</v>
       </c>
       <c r="AQ16" s="32"/>
@@ -2369,145 +2391,145 @@
     </row>
     <row r="17" spans="2:45" ht="15.75" customHeight="1" thickBot="1">
       <c r="B17" s="69"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="112"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="102"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="103"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="128"/>
       <c r="U17" s="13" t="s">
         <v>51</v>
       </c>
       <c r="V17" s="13"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
       <c r="Z17" s="14"/>
-      <c r="AA17" s="110"/>
-      <c r="AB17" s="111"/>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="112"/>
+      <c r="AA17" s="100"/>
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="102"/>
       <c r="AF17" s="21"/>
       <c r="AG17" s="69" t="s">
         <v>77</v>
       </c>
       <c r="AH17" s="32"/>
-      <c r="AI17" s="66"/>
+      <c r="AI17" s="111"/>
       <c r="AJ17" s="32"/>
-      <c r="AK17" s="66"/>
+      <c r="AK17" s="111"/>
       <c r="AL17" s="32"/>
-      <c r="AM17" s="66"/>
-      <c r="AN17" s="68"/>
+      <c r="AM17" s="111"/>
+      <c r="AN17" s="70"/>
       <c r="AO17" s="32"/>
-      <c r="AP17" s="66"/>
+      <c r="AP17" s="111"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="22"/>
       <c r="AS17" s="22"/>
     </row>
     <row r="18" spans="2:45" ht="15.75" thickBot="1">
       <c r="B18" s="69"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="75" t="s">
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="77"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="99"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
       <c r="Z18" s="14"/>
-      <c r="AA18" s="75" t="s">
+      <c r="AA18" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="77"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="99"/>
       <c r="AF18" s="21"/>
       <c r="AG18" s="69"/>
       <c r="AH18" s="32"/>
-      <c r="AI18" s="66"/>
+      <c r="AI18" s="111"/>
       <c r="AJ18" s="32"/>
-      <c r="AK18" s="66"/>
+      <c r="AK18" s="111"/>
       <c r="AL18" s="32"/>
-      <c r="AM18" s="66"/>
-      <c r="AN18" s="68"/>
+      <c r="AM18" s="111"/>
+      <c r="AN18" s="70"/>
       <c r="AO18" s="32"/>
-      <c r="AP18" s="66"/>
+      <c r="AP18" s="111"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="22"/>
       <c r="AS18" s="22"/>
     </row>
     <row r="19" spans="2:45">
       <c r="B19" s="69"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="92"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="84"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="103"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="141"/>
+      <c r="T19" s="128"/>
       <c r="U19" s="13" t="s">
         <v>54</v>
       </c>
       <c r="V19" s="13"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
       <c r="Z19" s="14"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="91"/>
-      <c r="AC19" s="91"/>
-      <c r="AD19" s="92"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="83"/>
+      <c r="AD19" s="84"/>
       <c r="AF19" s="21"/>
       <c r="AG19" s="69" t="s">
         <v>78</v>
       </c>
       <c r="AH19" s="32"/>
-      <c r="AI19" s="66"/>
+      <c r="AI19" s="111"/>
       <c r="AJ19" s="32"/>
-      <c r="AK19" s="66"/>
+      <c r="AK19" s="111"/>
       <c r="AL19" s="32"/>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="68"/>
+      <c r="AM19" s="111"/>
+      <c r="AN19" s="70"/>
       <c r="AO19" s="32"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66" t="s">
+      <c r="AP19" s="111"/>
+      <c r="AQ19" s="111" t="s">
         <v>82</v>
       </c>
       <c r="AR19" s="22"/>
@@ -2515,71 +2537,71 @@
     </row>
     <row r="20" spans="2:45" ht="15" customHeight="1">
       <c r="B20" s="69"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="97"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="87"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
       <c r="Z20" s="14"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="73"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="97"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="87"/>
       <c r="AF20" s="21"/>
       <c r="AG20" s="69"/>
-      <c r="AH20" s="66" t="s">
+      <c r="AH20" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66" t="s">
+      <c r="AI20" s="111"/>
+      <c r="AJ20" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66" t="s">
+      <c r="AK20" s="111"/>
+      <c r="AL20" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="66" t="s">
+      <c r="AM20" s="111"/>
+      <c r="AN20" s="70"/>
+      <c r="AO20" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
+      <c r="AP20" s="111"/>
+      <c r="AQ20" s="111"/>
       <c r="AR20" s="22"/>
       <c r="AS20" s="22"/>
     </row>
     <row r="21" spans="2:45">
       <c r="B21" s="69"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="97"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="87"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
@@ -2588,46 +2610,46 @@
         <v>52</v>
       </c>
       <c r="V21" s="13"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
       <c r="Z21" s="14"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="73"/>
-      <c r="AC21" s="73"/>
-      <c r="AD21" s="97"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="87"/>
       <c r="AF21" s="21"/>
       <c r="AG21" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
+      <c r="AH21" s="111"/>
+      <c r="AI21" s="111"/>
+      <c r="AJ21" s="111"/>
+      <c r="AK21" s="111"/>
+      <c r="AL21" s="111"/>
+      <c r="AM21" s="111"/>
+      <c r="AN21" s="70"/>
+      <c r="AO21" s="111"/>
+      <c r="AP21" s="111"/>
+      <c r="AQ21" s="111"/>
       <c r="AR21" s="22"/>
       <c r="AS21" s="22"/>
     </row>
     <row r="22" spans="2:45" ht="15.75" thickBot="1">
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="106"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="91"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
@@ -2638,26 +2660,26 @@
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
       <c r="Z22" s="17"/>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="105"/>
-      <c r="AC22" s="105"/>
-      <c r="AD22" s="106"/>
+      <c r="AA22" s="119"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="91"/>
       <c r="AF22" s="21"/>
       <c r="AG22" s="69"/>
-      <c r="AH22" s="66"/>
+      <c r="AH22" s="111"/>
       <c r="AI22" s="32"/>
-      <c r="AJ22" s="66"/>
+      <c r="AJ22" s="111"/>
       <c r="AK22" s="32"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="66" t="s">
+      <c r="AL22" s="111"/>
+      <c r="AM22" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="AN22" s="68"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="66" t="s">
+      <c r="AN22" s="70"/>
+      <c r="AO22" s="111"/>
+      <c r="AP22" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="AQ22" s="66"/>
+      <c r="AQ22" s="111"/>
       <c r="AR22" s="22"/>
       <c r="AS22" s="22"/>
     </row>
@@ -2672,10 +2694,10 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="97"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="87"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -2686,160 +2708,160 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="97"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="87"/>
       <c r="AF23" s="21"/>
       <c r="AG23" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="AH23" s="66"/>
+      <c r="AH23" s="111"/>
       <c r="AI23" s="32"/>
-      <c r="AJ23" s="66"/>
+      <c r="AJ23" s="111"/>
       <c r="AK23" s="32"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="66"/>
-      <c r="AN23" s="68"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="66"/>
-      <c r="AR23" s="67" t="s">
+      <c r="AL23" s="111"/>
+      <c r="AM23" s="111"/>
+      <c r="AN23" s="70"/>
+      <c r="AO23" s="111"/>
+      <c r="AP23" s="111"/>
+      <c r="AQ23" s="111"/>
+      <c r="AR23" s="155" t="s">
         <v>87</v>
       </c>
       <c r="AS23" s="22"/>
     </row>
     <row r="24" spans="2:45" ht="15" customHeight="1">
       <c r="B24" s="1"/>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="70" t="s">
+      <c r="G24" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="72"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="100"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="122"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="70" t="s">
+      <c r="R24" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="S24" s="71"/>
-      <c r="T24" s="72"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="118"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="70" t="s">
+      <c r="V24" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="72"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="118"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="100"/>
+      <c r="AA24" s="120"/>
+      <c r="AB24" s="121"/>
+      <c r="AC24" s="121"/>
+      <c r="AD24" s="122"/>
       <c r="AF24" s="21"/>
       <c r="AG24" s="69"/>
-      <c r="AH24" s="66"/>
+      <c r="AH24" s="111"/>
       <c r="AI24" s="32"/>
-      <c r="AJ24" s="66"/>
+      <c r="AJ24" s="111"/>
       <c r="AK24" s="32"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="66"/>
-      <c r="AN24" s="68"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="66"/>
-      <c r="AQ24" s="66"/>
-      <c r="AR24" s="67"/>
+      <c r="AL24" s="111"/>
+      <c r="AM24" s="111"/>
+      <c r="AN24" s="70"/>
+      <c r="AO24" s="111"/>
+      <c r="AP24" s="111"/>
+      <c r="AQ24" s="111"/>
+      <c r="AR24" s="155"/>
       <c r="AS24" s="22"/>
     </row>
     <row r="25" spans="2:45">
       <c r="B25" s="1"/>
-      <c r="C25" s="153" t="s">
+      <c r="C25" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="105"/>
-      <c r="E25" s="106"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="97"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="87"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="106"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="91"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="97"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="87"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="97"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="87"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="104"/>
-      <c r="AB25" s="105"/>
-      <c r="AC25" s="105"/>
-      <c r="AD25" s="106"/>
+      <c r="AA25" s="119"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="91"/>
       <c r="AF25" s="21"/>
       <c r="AG25" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="AH25" s="66"/>
+      <c r="AH25" s="111"/>
       <c r="AI25" s="32"/>
-      <c r="AJ25" s="66"/>
+      <c r="AJ25" s="111"/>
       <c r="AK25" s="32"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="66"/>
-      <c r="AN25" s="68"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="66"/>
-      <c r="AQ25" s="66" t="s">
+      <c r="AL25" s="111"/>
+      <c r="AM25" s="111"/>
+      <c r="AN25" s="70"/>
+      <c r="AO25" s="111"/>
+      <c r="AP25" s="111"/>
+      <c r="AQ25" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="AR25" s="67"/>
+      <c r="AR25" s="155"/>
       <c r="AS25" s="22"/>
     </row>
     <row r="26" spans="2:45">
       <c r="B26" s="1"/>
       <c r="C26" s="69"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="97"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="97"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="87"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="97"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="87"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="97"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="87"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="97"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="87"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="73"/>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="97"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="87"/>
       <c r="AF26" s="21"/>
       <c r="AG26" s="69"/>
       <c r="AH26" s="32"/>
@@ -2848,42 +2870,42 @@
       <c r="AK26" s="32"/>
       <c r="AL26" s="32"/>
       <c r="AM26" s="32"/>
-      <c r="AN26" s="68"/>
+      <c r="AN26" s="70"/>
       <c r="AO26" s="32"/>
       <c r="AP26" s="32"/>
-      <c r="AQ26" s="66"/>
-      <c r="AR26" s="67"/>
+      <c r="AQ26" s="111"/>
+      <c r="AR26" s="155"/>
       <c r="AS26" s="22"/>
     </row>
     <row r="27" spans="2:45">
       <c r="B27" s="1"/>
       <c r="C27" s="69"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="97"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="97"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="87"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="100"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="122"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="97"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="87"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="97"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="87"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="99"/>
-      <c r="AD27" s="100"/>
+      <c r="AA27" s="120"/>
+      <c r="AB27" s="121"/>
+      <c r="AC27" s="121"/>
+      <c r="AD27" s="122"/>
       <c r="AF27" s="21"/>
       <c r="AG27" s="69" t="s">
         <v>80</v>
@@ -2894,46 +2916,46 @@
       <c r="AK27" s="32"/>
       <c r="AL27" s="32"/>
       <c r="AM27" s="32"/>
-      <c r="AN27" s="68"/>
+      <c r="AN27" s="70"/>
       <c r="AO27" s="32"/>
       <c r="AP27" s="32"/>
-      <c r="AQ27" s="66"/>
-      <c r="AR27" s="67"/>
+      <c r="AQ27" s="111"/>
+      <c r="AR27" s="155"/>
       <c r="AS27" s="22"/>
     </row>
     <row r="28" spans="2:45" ht="15.75" thickBot="1">
       <c r="B28" s="1"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="97"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="87"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="97"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="107" t="s">
+      <c r="L28" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="109"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="125"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="97"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="87"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="97"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="87"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="107" t="s">
+      <c r="AA28" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="AB28" s="108"/>
-      <c r="AC28" s="108"/>
-      <c r="AD28" s="109"/>
+      <c r="AB28" s="124"/>
+      <c r="AC28" s="124"/>
+      <c r="AD28" s="125"/>
       <c r="AF28" s="21"/>
       <c r="AG28" s="69"/>
       <c r="AH28" s="32"/>
@@ -2945,36 +2967,36 @@
       <c r="AN28" s="32"/>
       <c r="AO28" s="32"/>
       <c r="AP28" s="32"/>
-      <c r="AQ28" s="66"/>
-      <c r="AR28" s="67"/>
+      <c r="AQ28" s="111"/>
+      <c r="AR28" s="155"/>
       <c r="AS28" s="22"/>
     </row>
     <row r="29" spans="2:45" ht="15.75" thickBot="1">
       <c r="B29" s="1"/>
-      <c r="C29" s="153" t="s">
+      <c r="C29" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="106"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="91"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="97"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="87"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="3"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="97"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="87"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="97"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="87"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
@@ -2998,35 +3020,35 @@
     <row r="30" spans="2:45" ht="15" customHeight="1">
       <c r="B30" s="1"/>
       <c r="C30" s="69"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="97"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="97"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="87"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="113" t="s">
+      <c r="L30" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="M30" s="114"/>
-      <c r="N30" s="115"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="109"/>
       <c r="O30" s="3"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="97"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="87"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="97"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="87"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="113" t="s">
+      <c r="AA30" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="AB30" s="114"/>
-      <c r="AC30" s="115"/>
+      <c r="AB30" s="108"/>
+      <c r="AC30" s="109"/>
       <c r="AD30" s="3"/>
       <c r="AF30" s="21"/>
       <c r="AG30" s="21"/>
@@ -3046,31 +3068,31 @@
     <row r="31" spans="2:45" ht="15.75" thickBot="1">
       <c r="B31" s="1"/>
       <c r="C31" s="69"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="97"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="87"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="97"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="87"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="74"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="112"/>
       <c r="O31" s="3"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="97"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="87"/>
       <c r="U31" s="2"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="97"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="87"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="116"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="74"/>
+      <c r="AA31" s="110"/>
+      <c r="AB31" s="111"/>
+      <c r="AC31" s="112"/>
       <c r="AD31" s="3"/>
       <c r="AF31" s="21"/>
       <c r="AG31" s="23"/>
@@ -3090,31 +3112,31 @@
     <row r="32" spans="2:45" ht="15.75" thickBot="1">
       <c r="B32" s="1"/>
       <c r="C32" s="69"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="97"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="87"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="112"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="102"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="119"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="115"/>
       <c r="O32" s="3"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="110"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="112"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="101"/>
+      <c r="T32" s="102"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="110"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="111"/>
-      <c r="Y32" s="112"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="102"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="117"/>
-      <c r="AB32" s="118"/>
-      <c r="AC32" s="119"/>
+      <c r="AA32" s="113"/>
+      <c r="AB32" s="114"/>
+      <c r="AC32" s="115"/>
       <c r="AD32" s="3"/>
       <c r="AF32" s="21"/>
       <c r="AG32" s="32"/>
@@ -3177,144 +3199,144 @@
     </row>
     <row r="35" spans="2:45" ht="15.75" thickBot="1"/>
     <row r="36" spans="2:45" ht="15.75" thickBot="1">
-      <c r="Q36" s="78" t="s">
+      <c r="Q36" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="R36" s="79"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="79"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="80" t="s">
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AB36" s="81"/>
-      <c r="AC36" s="81"/>
-      <c r="AD36" s="82"/>
-      <c r="AF36" s="78" t="s">
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="68"/>
+      <c r="AF36" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="AG36" s="79"/>
-      <c r="AH36" s="79"/>
-      <c r="AI36" s="79"/>
-      <c r="AJ36" s="79"/>
-      <c r="AK36" s="79"/>
-      <c r="AL36" s="79"/>
-      <c r="AM36" s="79"/>
-      <c r="AN36" s="79"/>
-      <c r="AO36" s="79"/>
-      <c r="AP36" s="80" t="s">
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="76"/>
+      <c r="AJ36" s="76"/>
+      <c r="AK36" s="76"/>
+      <c r="AL36" s="76"/>
+      <c r="AM36" s="76"/>
+      <c r="AN36" s="76"/>
+      <c r="AO36" s="76"/>
+      <c r="AP36" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AQ36" s="81"/>
-      <c r="AR36" s="81"/>
-      <c r="AS36" s="82"/>
+      <c r="AQ36" s="67"/>
+      <c r="AR36" s="67"/>
+      <c r="AS36" s="68"/>
     </row>
     <row r="37" spans="2:45">
-      <c r="Q37" s="87" t="s">
+      <c r="Q37" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="R37" s="88"/>
-      <c r="S37" s="89"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="91"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="91"/>
-      <c r="Y37" s="91"/>
-      <c r="Z37" s="92"/>
+      <c r="R37" s="150"/>
+      <c r="S37" s="151"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="83"/>
+      <c r="V37" s="83"/>
+      <c r="W37" s="83"/>
+      <c r="X37" s="83"/>
+      <c r="Y37" s="83"/>
+      <c r="Z37" s="84"/>
       <c r="AA37" s="69"/>
-      <c r="AB37" s="68"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="83"/>
-      <c r="AF37" s="87" t="s">
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="70"/>
+      <c r="AD37" s="71"/>
+      <c r="AF37" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="AG37" s="88"/>
-      <c r="AH37" s="89"/>
-      <c r="AI37" s="90"/>
-      <c r="AJ37" s="91"/>
-      <c r="AK37" s="91"/>
-      <c r="AL37" s="91"/>
-      <c r="AM37" s="91"/>
-      <c r="AN37" s="91"/>
-      <c r="AO37" s="92"/>
+      <c r="AG37" s="150"/>
+      <c r="AH37" s="151"/>
+      <c r="AI37" s="82"/>
+      <c r="AJ37" s="83"/>
+      <c r="AK37" s="83"/>
+      <c r="AL37" s="83"/>
+      <c r="AM37" s="83"/>
+      <c r="AN37" s="83"/>
+      <c r="AO37" s="84"/>
       <c r="AP37" s="69"/>
-      <c r="AQ37" s="68"/>
-      <c r="AR37" s="68"/>
-      <c r="AS37" s="83"/>
+      <c r="AQ37" s="70"/>
+      <c r="AR37" s="70"/>
+      <c r="AS37" s="71"/>
     </row>
     <row r="38" spans="2:45">
-      <c r="Q38" s="93" t="s">
+      <c r="Q38" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="R38" s="94"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="96"/>
-      <c r="U38" s="73"/>
-      <c r="V38" s="73"/>
-      <c r="W38" s="73"/>
-      <c r="X38" s="73"/>
-      <c r="Y38" s="73"/>
-      <c r="Z38" s="97"/>
+      <c r="R38" s="153"/>
+      <c r="S38" s="154"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="86"/>
+      <c r="V38" s="86"/>
+      <c r="W38" s="86"/>
+      <c r="X38" s="86"/>
+      <c r="Y38" s="86"/>
+      <c r="Z38" s="87"/>
       <c r="AA38" s="69"/>
-      <c r="AB38" s="68"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="83"/>
-      <c r="AF38" s="93" t="s">
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="71"/>
+      <c r="AF38" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="AG38" s="94"/>
-      <c r="AH38" s="95"/>
-      <c r="AI38" s="96"/>
-      <c r="AJ38" s="73"/>
-      <c r="AK38" s="73"/>
-      <c r="AL38" s="73"/>
-      <c r="AM38" s="73"/>
-      <c r="AN38" s="73"/>
-      <c r="AO38" s="97"/>
+      <c r="AG38" s="153"/>
+      <c r="AH38" s="154"/>
+      <c r="AI38" s="85"/>
+      <c r="AJ38" s="86"/>
+      <c r="AK38" s="86"/>
+      <c r="AL38" s="86"/>
+      <c r="AM38" s="86"/>
+      <c r="AN38" s="86"/>
+      <c r="AO38" s="87"/>
       <c r="AP38" s="69"/>
-      <c r="AQ38" s="68"/>
-      <c r="AR38" s="68"/>
-      <c r="AS38" s="83"/>
+      <c r="AQ38" s="70"/>
+      <c r="AR38" s="70"/>
+      <c r="AS38" s="71"/>
     </row>
     <row r="39" spans="2:45" ht="15.75" thickBot="1">
-      <c r="Q39" s="98" t="s">
+      <c r="Q39" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="R39" s="99"/>
-      <c r="S39" s="100"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="73"/>
-      <c r="V39" s="73"/>
-      <c r="W39" s="73"/>
-      <c r="X39" s="73"/>
-      <c r="Y39" s="73"/>
-      <c r="Z39" s="97"/>
-      <c r="AA39" s="84"/>
-      <c r="AB39" s="85"/>
-      <c r="AC39" s="85"/>
-      <c r="AD39" s="86"/>
-      <c r="AF39" s="98" t="s">
+      <c r="R39" s="121"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="86"/>
+      <c r="V39" s="86"/>
+      <c r="W39" s="86"/>
+      <c r="X39" s="86"/>
+      <c r="Y39" s="86"/>
+      <c r="Z39" s="87"/>
+      <c r="AA39" s="72"/>
+      <c r="AB39" s="73"/>
+      <c r="AC39" s="73"/>
+      <c r="AD39" s="74"/>
+      <c r="AF39" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="AG39" s="99"/>
-      <c r="AH39" s="100"/>
-      <c r="AI39" s="96"/>
-      <c r="AJ39" s="73"/>
-      <c r="AK39" s="73"/>
-      <c r="AL39" s="73"/>
-      <c r="AM39" s="73"/>
-      <c r="AN39" s="73"/>
-      <c r="AO39" s="97"/>
-      <c r="AP39" s="84"/>
-      <c r="AQ39" s="85"/>
-      <c r="AR39" s="85"/>
-      <c r="AS39" s="86"/>
+      <c r="AG39" s="121"/>
+      <c r="AH39" s="122"/>
+      <c r="AI39" s="85"/>
+      <c r="AJ39" s="86"/>
+      <c r="AK39" s="86"/>
+      <c r="AL39" s="86"/>
+      <c r="AM39" s="86"/>
+      <c r="AN39" s="86"/>
+      <c r="AO39" s="87"/>
+      <c r="AP39" s="72"/>
+      <c r="AQ39" s="73"/>
+      <c r="AR39" s="73"/>
+      <c r="AS39" s="74"/>
     </row>
     <row r="40" spans="2:45" ht="15.75" thickBot="1">
       <c r="Q40" s="50"/>
@@ -3379,24 +3401,24 @@
       <c r="AS40" s="3"/>
     </row>
     <row r="41" spans="2:45" ht="15.75" thickBot="1">
-      <c r="Q41" s="75" t="s">
+      <c r="Q41" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="R41" s="76"/>
-      <c r="S41" s="76"/>
-      <c r="T41" s="76"/>
-      <c r="U41" s="76"/>
-      <c r="V41" s="76"/>
-      <c r="W41" s="76"/>
-      <c r="X41" s="76"/>
-      <c r="Y41" s="76"/>
-      <c r="Z41" s="77"/>
-      <c r="AA41" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB41" s="76"/>
-      <c r="AC41" s="76"/>
-      <c r="AD41" s="77"/>
+      <c r="R41" s="98"/>
+      <c r="S41" s="98"/>
+      <c r="T41" s="98"/>
+      <c r="U41" s="98"/>
+      <c r="V41" s="98"/>
+      <c r="W41" s="98"/>
+      <c r="X41" s="98"/>
+      <c r="Y41" s="98"/>
+      <c r="Z41" s="99"/>
+      <c r="AA41" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB41" s="98"/>
+      <c r="AC41" s="98"/>
+      <c r="AD41" s="99"/>
       <c r="AF41" s="31"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
@@ -3413,39 +3435,39 @@
       <c r="AS41" s="20"/>
     </row>
     <row r="42" spans="2:45">
-      <c r="Q42" s="80" t="s">
+      <c r="Q42" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="R42" s="81"/>
-      <c r="S42" s="81"/>
-      <c r="T42" s="127"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="67"/>
+      <c r="T42" s="126"/>
       <c r="U42" s="44"/>
       <c r="V42" s="44"/>
       <c r="W42" s="44"/>
       <c r="X42" s="44"/>
       <c r="Y42" s="44"/>
       <c r="Z42" s="45"/>
-      <c r="AA42" s="90"/>
-      <c r="AB42" s="91"/>
-      <c r="AC42" s="91"/>
-      <c r="AD42" s="92"/>
+      <c r="AA42" s="82"/>
+      <c r="AB42" s="83"/>
+      <c r="AC42" s="83"/>
+      <c r="AD42" s="84"/>
       <c r="AF42" s="21"/>
-      <c r="AG42" s="70" t="s">
+      <c r="AG42" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="AH42" s="71"/>
-      <c r="AI42" s="71"/>
-      <c r="AJ42" s="72"/>
+      <c r="AH42" s="117"/>
+      <c r="AI42" s="117"/>
+      <c r="AJ42" s="118"/>
       <c r="AK42" s="32"/>
-      <c r="AL42" s="70" t="s">
+      <c r="AL42" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="AM42" s="71"/>
-      <c r="AN42" s="71"/>
-      <c r="AO42" s="71"/>
-      <c r="AP42" s="71"/>
-      <c r="AQ42" s="71"/>
-      <c r="AR42" s="72"/>
+      <c r="AM42" s="117"/>
+      <c r="AN42" s="117"/>
+      <c r="AO42" s="117"/>
+      <c r="AP42" s="117"/>
+      <c r="AQ42" s="117"/>
+      <c r="AR42" s="118"/>
       <c r="AS42" s="22"/>
     </row>
     <row r="43" spans="2:45">
@@ -3454,17 +3476,17 @@
       <c r="S43" s="13"/>
       <c r="T43" s="38"/>
       <c r="U43" s="46"/>
-      <c r="V43" s="68" t="s">
+      <c r="V43" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="W43" s="126"/>
-      <c r="X43" s="126"/>
-      <c r="Y43" s="126"/>
+      <c r="W43" s="148"/>
+      <c r="X43" s="148"/>
+      <c r="Y43" s="148"/>
       <c r="Z43" s="47"/>
-      <c r="AA43" s="96"/>
-      <c r="AB43" s="73"/>
-      <c r="AC43" s="73"/>
-      <c r="AD43" s="97"/>
+      <c r="AA43" s="85"/>
+      <c r="AB43" s="86"/>
+      <c r="AC43" s="86"/>
+      <c r="AD43" s="87"/>
       <c r="AF43" s="21"/>
       <c r="AG43" s="21"/>
       <c r="AH43" s="32"/>
@@ -3497,16 +3519,16 @@
       <c r="X44" s="46"/>
       <c r="Y44" s="46"/>
       <c r="Z44" s="47"/>
-      <c r="AA44" s="96"/>
-      <c r="AB44" s="73"/>
-      <c r="AC44" s="73"/>
-      <c r="AD44" s="97"/>
+      <c r="AA44" s="85"/>
+      <c r="AB44" s="86"/>
+      <c r="AC44" s="86"/>
+      <c r="AD44" s="87"/>
       <c r="AF44" s="21"/>
       <c r="AG44" s="21"/>
-      <c r="AH44" s="68" t="s">
+      <c r="AH44" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="AI44" s="68"/>
+      <c r="AI44" s="70"/>
       <c r="AJ44" s="22"/>
       <c r="AK44" s="32"/>
       <c r="AL44" s="21" t="s">
@@ -3538,21 +3560,21 @@
         <v>0</v>
       </c>
       <c r="U45" s="46"/>
-      <c r="V45" s="101" t="s">
+      <c r="V45" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="W45" s="103"/>
+      <c r="W45" s="128"/>
       <c r="X45" s="46"/>
       <c r="Y45" s="46"/>
       <c r="Z45" s="47"/>
-      <c r="AA45" s="96"/>
-      <c r="AB45" s="73"/>
-      <c r="AC45" s="73"/>
-      <c r="AD45" s="97"/>
+      <c r="AA45" s="85"/>
+      <c r="AB45" s="86"/>
+      <c r="AC45" s="86"/>
+      <c r="AD45" s="87"/>
       <c r="AF45" s="21"/>
       <c r="AG45" s="21"/>
-      <c r="AH45" s="68"/>
-      <c r="AI45" s="68"/>
+      <c r="AH45" s="70"/>
+      <c r="AI45" s="70"/>
       <c r="AJ45" s="22"/>
       <c r="AK45" s="32"/>
       <c r="AL45" s="21"/>
@@ -3576,19 +3598,19 @@
         <v>31</v>
       </c>
       <c r="U46" s="46"/>
-      <c r="V46" s="134"/>
-      <c r="W46" s="135"/>
-      <c r="X46" s="135"/>
-      <c r="Y46" s="136"/>
+      <c r="V46" s="129"/>
+      <c r="W46" s="130"/>
+      <c r="X46" s="130"/>
+      <c r="Y46" s="131"/>
       <c r="Z46" s="47"/>
-      <c r="AA46" s="96"/>
-      <c r="AB46" s="73"/>
-      <c r="AC46" s="73"/>
-      <c r="AD46" s="97"/>
+      <c r="AA46" s="85"/>
+      <c r="AB46" s="86"/>
+      <c r="AC46" s="86"/>
+      <c r="AD46" s="87"/>
       <c r="AF46" s="21"/>
       <c r="AG46" s="21"/>
-      <c r="AH46" s="68"/>
-      <c r="AI46" s="68"/>
+      <c r="AH46" s="70"/>
+      <c r="AI46" s="70"/>
       <c r="AJ46" s="22"/>
       <c r="AK46" s="32"/>
       <c r="AL46" s="21" t="s">
@@ -3598,12 +3620,12 @@
         <v>62</v>
       </c>
       <c r="AN46" s="32"/>
-      <c r="AO46" s="66" t="s">
+      <c r="AO46" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="AP46" s="66"/>
-      <c r="AQ46" s="66"/>
-      <c r="AR46" s="74"/>
+      <c r="AP46" s="111"/>
+      <c r="AQ46" s="111"/>
+      <c r="AR46" s="112"/>
       <c r="AS46" s="22"/>
     </row>
     <row r="47" spans="2:45">
@@ -3612,28 +3634,28 @@
       <c r="S47" s="13"/>
       <c r="T47" s="38"/>
       <c r="U47" s="46"/>
-      <c r="V47" s="137"/>
-      <c r="W47" s="138"/>
-      <c r="X47" s="138"/>
-      <c r="Y47" s="139"/>
+      <c r="V47" s="132"/>
+      <c r="W47" s="133"/>
+      <c r="X47" s="133"/>
+      <c r="Y47" s="134"/>
       <c r="Z47" s="47"/>
-      <c r="AA47" s="96"/>
-      <c r="AB47" s="73"/>
-      <c r="AC47" s="73"/>
-      <c r="AD47" s="97"/>
+      <c r="AA47" s="85"/>
+      <c r="AB47" s="86"/>
+      <c r="AC47" s="86"/>
+      <c r="AD47" s="87"/>
       <c r="AF47" s="21"/>
       <c r="AG47" s="21"/>
-      <c r="AH47" s="68"/>
-      <c r="AI47" s="68"/>
+      <c r="AH47" s="70"/>
+      <c r="AI47" s="70"/>
       <c r="AJ47" s="22"/>
       <c r="AK47" s="32"/>
       <c r="AL47" s="21"/>
       <c r="AM47" s="32"/>
       <c r="AN47" s="32"/>
-      <c r="AO47" s="66"/>
-      <c r="AP47" s="66"/>
-      <c r="AQ47" s="66"/>
-      <c r="AR47" s="74"/>
+      <c r="AO47" s="111"/>
+      <c r="AP47" s="111"/>
+      <c r="AQ47" s="111"/>
+      <c r="AR47" s="112"/>
       <c r="AS47" s="22"/>
     </row>
     <row r="48" spans="2:45">
@@ -3647,14 +3669,14 @@
       <c r="X48" s="46"/>
       <c r="Y48" s="46"/>
       <c r="Z48" s="47"/>
-      <c r="AA48" s="96"/>
-      <c r="AB48" s="73"/>
-      <c r="AC48" s="73"/>
-      <c r="AD48" s="97"/>
+      <c r="AA48" s="85"/>
+      <c r="AB48" s="86"/>
+      <c r="AC48" s="86"/>
+      <c r="AD48" s="87"/>
       <c r="AF48" s="21"/>
       <c r="AG48" s="21"/>
-      <c r="AH48" s="68"/>
-      <c r="AI48" s="68"/>
+      <c r="AH48" s="70"/>
+      <c r="AI48" s="70"/>
       <c r="AJ48" s="22"/>
       <c r="AK48" s="32"/>
       <c r="AL48" s="21"/>
@@ -3677,10 +3699,10 @@
       <c r="X49" s="46"/>
       <c r="Y49" s="46"/>
       <c r="Z49" s="47"/>
-      <c r="AA49" s="96"/>
-      <c r="AB49" s="73"/>
-      <c r="AC49" s="73"/>
-      <c r="AD49" s="97"/>
+      <c r="AA49" s="85"/>
+      <c r="AB49" s="86"/>
+      <c r="AC49" s="86"/>
+      <c r="AD49" s="87"/>
       <c r="AF49" s="21"/>
       <c r="AG49" s="21"/>
       <c r="AH49" s="32"/>
@@ -3697,30 +3719,30 @@
       <c r="AS49" s="22"/>
     </row>
     <row r="50" spans="17:45" ht="15.75" thickBot="1">
-      <c r="Q50" s="128" t="s">
+      <c r="Q50" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="R50" s="102"/>
-      <c r="S50" s="102"/>
-      <c r="T50" s="103"/>
+      <c r="R50" s="141"/>
+      <c r="S50" s="141"/>
+      <c r="T50" s="128"/>
       <c r="U50" s="46"/>
-      <c r="V50" s="101" t="s">
+      <c r="V50" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="W50" s="103"/>
+      <c r="W50" s="128"/>
       <c r="X50" s="46"/>
       <c r="Y50" s="46"/>
       <c r="Z50" s="47"/>
-      <c r="AA50" s="96"/>
-      <c r="AB50" s="73"/>
-      <c r="AC50" s="73"/>
-      <c r="AD50" s="97"/>
+      <c r="AA50" s="85"/>
+      <c r="AB50" s="86"/>
+      <c r="AC50" s="86"/>
+      <c r="AD50" s="87"/>
       <c r="AF50" s="21"/>
       <c r="AG50" s="21"/>
-      <c r="AH50" s="73" t="s">
+      <c r="AH50" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="AI50" s="73"/>
+      <c r="AI50" s="86"/>
       <c r="AJ50" s="22"/>
       <c r="AK50" s="32"/>
       <c r="AL50" s="32"/>
@@ -3733,64 +3755,64 @@
       <c r="AS50" s="22"/>
     </row>
     <row r="51" spans="17:45" ht="15.75" thickBot="1">
-      <c r="Q51" s="129" t="s">
+      <c r="Q51" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="R51" s="130"/>
-      <c r="S51" s="130"/>
-      <c r="T51" s="131"/>
+      <c r="R51" s="143"/>
+      <c r="S51" s="143"/>
+      <c r="T51" s="144"/>
       <c r="U51" s="46"/>
-      <c r="V51" s="140" t="s">
+      <c r="V51" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="W51" s="141"/>
-      <c r="X51" s="141"/>
-      <c r="Y51" s="142"/>
+      <c r="W51" s="103"/>
+      <c r="X51" s="103"/>
+      <c r="Y51" s="135"/>
       <c r="Z51" s="47"/>
-      <c r="AA51" s="110"/>
-      <c r="AB51" s="111"/>
-      <c r="AC51" s="111"/>
-      <c r="AD51" s="112"/>
+      <c r="AA51" s="100"/>
+      <c r="AB51" s="101"/>
+      <c r="AC51" s="101"/>
+      <c r="AD51" s="102"/>
       <c r="AF51" s="21"/>
       <c r="AG51" s="21"/>
       <c r="AH51" s="32"/>
       <c r="AI51" s="32"/>
       <c r="AJ51" s="22"/>
       <c r="AK51" s="32"/>
-      <c r="AL51" s="70" t="s">
+      <c r="AL51" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="AM51" s="71"/>
-      <c r="AN51" s="71"/>
-      <c r="AO51" s="71"/>
-      <c r="AP51" s="71"/>
-      <c r="AQ51" s="71"/>
-      <c r="AR51" s="72"/>
+      <c r="AM51" s="117"/>
+      <c r="AN51" s="117"/>
+      <c r="AO51" s="117"/>
+      <c r="AP51" s="117"/>
+      <c r="AQ51" s="117"/>
+      <c r="AR51" s="118"/>
       <c r="AS51" s="22"/>
     </row>
     <row r="52" spans="17:45" ht="15.75" thickBot="1">
-      <c r="Q52" s="116"/>
-      <c r="R52" s="66"/>
-      <c r="S52" s="66"/>
-      <c r="T52" s="132"/>
+      <c r="Q52" s="110"/>
+      <c r="R52" s="111"/>
+      <c r="S52" s="111"/>
+      <c r="T52" s="145"/>
       <c r="U52" s="46"/>
-      <c r="V52" s="143"/>
-      <c r="W52" s="144"/>
-      <c r="X52" s="144"/>
-      <c r="Y52" s="145"/>
+      <c r="V52" s="136"/>
+      <c r="W52" s="96"/>
+      <c r="X52" s="96"/>
+      <c r="Y52" s="137"/>
       <c r="Z52" s="47"/>
-      <c r="AA52" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB52" s="76"/>
-      <c r="AC52" s="76"/>
-      <c r="AD52" s="77"/>
+      <c r="AA52" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB52" s="98"/>
+      <c r="AC52" s="98"/>
+      <c r="AD52" s="99"/>
       <c r="AF52" s="21"/>
       <c r="AG52" s="21"/>
-      <c r="AH52" s="73" t="s">
+      <c r="AH52" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="AI52" s="73"/>
+      <c r="AI52" s="86"/>
       <c r="AJ52" s="22"/>
       <c r="AK52" s="32"/>
       <c r="AL52" s="21" t="s">
@@ -3806,20 +3828,22 @@
       <c r="AS52" s="22"/>
     </row>
     <row r="53" spans="17:45" ht="15.75" thickBot="1">
-      <c r="Q53" s="116"/>
-      <c r="R53" s="66"/>
-      <c r="S53" s="66"/>
-      <c r="T53" s="132"/>
+      <c r="Q53" s="110"/>
+      <c r="R53" s="111"/>
+      <c r="S53" s="111"/>
+      <c r="T53" s="145"/>
       <c r="U53" s="46"/>
       <c r="V53" s="46"/>
       <c r="W53" s="46"/>
       <c r="X53" s="46"/>
       <c r="Y53" s="46"/>
       <c r="Z53" s="47"/>
-      <c r="AA53" s="90"/>
-      <c r="AB53" s="91"/>
-      <c r="AC53" s="91"/>
-      <c r="AD53" s="92"/>
+      <c r="AA53" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="67"/>
+      <c r="AD53" s="68"/>
       <c r="AF53" s="21"/>
       <c r="AG53" s="23"/>
       <c r="AH53" s="24"/>
@@ -3838,22 +3862,22 @@
       <c r="AS53" s="22"/>
     </row>
     <row r="54" spans="17:45">
-      <c r="Q54" s="116"/>
-      <c r="R54" s="66"/>
-      <c r="S54" s="66"/>
-      <c r="T54" s="132"/>
+      <c r="Q54" s="110"/>
+      <c r="R54" s="111"/>
+      <c r="S54" s="111"/>
+      <c r="T54" s="145"/>
       <c r="U54" s="46"/>
       <c r="V54" s="46"/>
       <c r="W54" s="46"/>
-      <c r="X54" s="146" t="s">
+      <c r="X54" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="Y54" s="147"/>
+      <c r="Y54" s="139"/>
       <c r="Z54" s="47"/>
-      <c r="AA54" s="96"/>
-      <c r="AB54" s="73"/>
-      <c r="AC54" s="73"/>
-      <c r="AD54" s="97"/>
+      <c r="AA54" s="69"/>
+      <c r="AB54" s="70"/>
+      <c r="AC54" s="70"/>
+      <c r="AD54" s="71"/>
       <c r="AF54" s="21"/>
       <c r="AG54" s="32"/>
       <c r="AH54" s="32"/>
@@ -3870,20 +3894,20 @@
       <c r="AS54" s="22"/>
     </row>
     <row r="55" spans="17:45">
-      <c r="Q55" s="116"/>
-      <c r="R55" s="66"/>
-      <c r="S55" s="66"/>
-      <c r="T55" s="132"/>
+      <c r="Q55" s="110"/>
+      <c r="R55" s="111"/>
+      <c r="S55" s="111"/>
+      <c r="T55" s="145"/>
       <c r="U55" s="46"/>
       <c r="V55" s="46"/>
       <c r="W55" s="46"/>
       <c r="X55" s="46"/>
       <c r="Y55" s="46"/>
       <c r="Z55" s="47"/>
-      <c r="AA55" s="96"/>
-      <c r="AB55" s="73"/>
-      <c r="AC55" s="73"/>
-      <c r="AD55" s="97"/>
+      <c r="AA55" s="69"/>
+      <c r="AB55" s="70"/>
+      <c r="AC55" s="70"/>
+      <c r="AD55" s="71"/>
       <c r="AF55" s="21"/>
       <c r="AG55" s="32"/>
       <c r="AH55" s="32"/>
@@ -3894,28 +3918,28 @@
       <c r="AM55" s="32"/>
       <c r="AN55" s="32"/>
       <c r="AO55" s="32"/>
-      <c r="AP55" s="68" t="s">
+      <c r="AP55" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="AQ55" s="68"/>
-      <c r="AR55" s="68"/>
+      <c r="AQ55" s="70"/>
+      <c r="AR55" s="70"/>
       <c r="AS55" s="22"/>
     </row>
     <row r="56" spans="17:45" ht="15.75" thickBot="1">
-      <c r="Q56" s="117"/>
-      <c r="R56" s="118"/>
-      <c r="S56" s="118"/>
-      <c r="T56" s="133"/>
+      <c r="Q56" s="113"/>
+      <c r="R56" s="114"/>
+      <c r="S56" s="114"/>
+      <c r="T56" s="146"/>
       <c r="U56" s="48"/>
       <c r="V56" s="48"/>
       <c r="W56" s="48"/>
       <c r="X56" s="48"/>
       <c r="Y56" s="48"/>
       <c r="Z56" s="49"/>
-      <c r="AA56" s="104"/>
-      <c r="AB56" s="105"/>
-      <c r="AC56" s="105"/>
-      <c r="AD56" s="106"/>
+      <c r="AA56" s="69"/>
+      <c r="AB56" s="70"/>
+      <c r="AC56" s="70"/>
+      <c r="AD56" s="71"/>
       <c r="AF56" s="21"/>
       <c r="AG56" s="32"/>
       <c r="AH56" s="32"/>
@@ -3926,9 +3950,9 @@
       <c r="AM56" s="32"/>
       <c r="AN56" s="32"/>
       <c r="AO56" s="32"/>
-      <c r="AP56" s="68"/>
-      <c r="AQ56" s="68"/>
-      <c r="AR56" s="68"/>
+      <c r="AP56" s="70"/>
+      <c r="AQ56" s="70"/>
+      <c r="AR56" s="70"/>
       <c r="AS56" s="22"/>
     </row>
     <row r="57" spans="17:45" ht="15.75" thickBot="1">
@@ -3942,10 +3966,10 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
-      <c r="AA57" s="96"/>
-      <c r="AB57" s="73"/>
-      <c r="AC57" s="73"/>
-      <c r="AD57" s="97"/>
+      <c r="AA57" s="69"/>
+      <c r="AB57" s="70"/>
+      <c r="AC57" s="70"/>
+      <c r="AD57" s="71"/>
       <c r="AF57" s="21"/>
       <c r="AG57" s="32"/>
       <c r="AH57" s="32"/>
@@ -3956,30 +3980,30 @@
       <c r="AM57" s="32"/>
       <c r="AN57" s="32"/>
       <c r="AO57" s="32"/>
-      <c r="AP57" s="68"/>
-      <c r="AQ57" s="68"/>
-      <c r="AR57" s="68"/>
+      <c r="AP57" s="70"/>
+      <c r="AQ57" s="70"/>
+      <c r="AR57" s="70"/>
       <c r="AS57" s="22"/>
     </row>
     <row r="58" spans="17:45">
       <c r="Q58" s="1"/>
-      <c r="R58" s="70" t="s">
+      <c r="R58" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="S58" s="71"/>
-      <c r="T58" s="72"/>
+      <c r="S58" s="117"/>
+      <c r="T58" s="118"/>
       <c r="U58" s="2"/>
-      <c r="V58" s="70" t="s">
+      <c r="V58" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="W58" s="71"/>
-      <c r="X58" s="71"/>
-      <c r="Y58" s="72"/>
+      <c r="W58" s="117"/>
+      <c r="X58" s="117"/>
+      <c r="Y58" s="118"/>
       <c r="Z58" s="2"/>
-      <c r="AA58" s="98"/>
-      <c r="AB58" s="99"/>
-      <c r="AC58" s="99"/>
-      <c r="AD58" s="100"/>
+      <c r="AA58" s="69"/>
+      <c r="AB58" s="70"/>
+      <c r="AC58" s="70"/>
+      <c r="AD58" s="71"/>
       <c r="AF58" s="21"/>
       <c r="AG58" s="32"/>
       <c r="AH58" s="32"/>
@@ -3997,19 +4021,19 @@
     </row>
     <row r="59" spans="17:45">
       <c r="Q59" s="1"/>
-      <c r="R59" s="96"/>
-      <c r="S59" s="73"/>
-      <c r="T59" s="97"/>
+      <c r="R59" s="85"/>
+      <c r="S59" s="86"/>
+      <c r="T59" s="87"/>
       <c r="U59" s="2"/>
-      <c r="V59" s="96"/>
-      <c r="W59" s="73"/>
-      <c r="X59" s="73"/>
-      <c r="Y59" s="97"/>
+      <c r="V59" s="85"/>
+      <c r="W59" s="86"/>
+      <c r="X59" s="86"/>
+      <c r="Y59" s="87"/>
       <c r="Z59" s="2"/>
-      <c r="AA59" s="104"/>
-      <c r="AB59" s="105"/>
-      <c r="AC59" s="105"/>
-      <c r="AD59" s="106"/>
+      <c r="AA59" s="69"/>
+      <c r="AB59" s="70"/>
+      <c r="AC59" s="70"/>
+      <c r="AD59" s="71"/>
       <c r="AF59" s="21"/>
       <c r="AG59" s="32"/>
       <c r="AH59" s="32"/>
@@ -4027,19 +4051,19 @@
     </row>
     <row r="60" spans="17:45">
       <c r="Q60" s="1"/>
-      <c r="R60" s="96"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="97"/>
+      <c r="R60" s="85"/>
+      <c r="S60" s="86"/>
+      <c r="T60" s="87"/>
       <c r="U60" s="2"/>
-      <c r="V60" s="96"/>
-      <c r="W60" s="73"/>
-      <c r="X60" s="73"/>
-      <c r="Y60" s="97"/>
+      <c r="V60" s="85"/>
+      <c r="W60" s="86"/>
+      <c r="X60" s="86"/>
+      <c r="Y60" s="87"/>
       <c r="Z60" s="2"/>
-      <c r="AA60" s="96"/>
-      <c r="AB60" s="73"/>
-      <c r="AC60" s="73"/>
-      <c r="AD60" s="97"/>
+      <c r="AA60" s="69"/>
+      <c r="AB60" s="70"/>
+      <c r="AC60" s="70"/>
+      <c r="AD60" s="71"/>
       <c r="AF60" s="21"/>
       <c r="AG60" s="32"/>
       <c r="AH60" s="32"/>
@@ -4057,19 +4081,19 @@
     </row>
     <row r="61" spans="17:45">
       <c r="Q61" s="1"/>
-      <c r="R61" s="96"/>
-      <c r="S61" s="73"/>
-      <c r="T61" s="97"/>
+      <c r="R61" s="85"/>
+      <c r="S61" s="86"/>
+      <c r="T61" s="87"/>
       <c r="U61" s="2"/>
-      <c r="V61" s="96"/>
-      <c r="W61" s="73"/>
-      <c r="X61" s="73"/>
-      <c r="Y61" s="97"/>
+      <c r="V61" s="85"/>
+      <c r="W61" s="86"/>
+      <c r="X61" s="86"/>
+      <c r="Y61" s="87"/>
       <c r="Z61" s="2"/>
-      <c r="AA61" s="98"/>
-      <c r="AB61" s="99"/>
-      <c r="AC61" s="99"/>
-      <c r="AD61" s="100"/>
+      <c r="AA61" s="69"/>
+      <c r="AB61" s="70"/>
+      <c r="AC61" s="70"/>
+      <c r="AD61" s="71"/>
       <c r="AF61" s="21"/>
       <c r="AG61" s="32"/>
       <c r="AH61" s="32"/>
@@ -4087,21 +4111,19 @@
     </row>
     <row r="62" spans="17:45" ht="15.75" thickBot="1">
       <c r="Q62" s="1"/>
-      <c r="R62" s="96"/>
-      <c r="S62" s="73"/>
-      <c r="T62" s="97"/>
+      <c r="R62" s="85"/>
+      <c r="S62" s="86"/>
+      <c r="T62" s="87"/>
       <c r="U62" s="2"/>
-      <c r="V62" s="96"/>
-      <c r="W62" s="73"/>
-      <c r="X62" s="73"/>
-      <c r="Y62" s="97"/>
+      <c r="V62" s="85"/>
+      <c r="W62" s="86"/>
+      <c r="X62" s="86"/>
+      <c r="Y62" s="87"/>
       <c r="Z62" s="2"/>
-      <c r="AA62" s="107" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB62" s="108"/>
-      <c r="AC62" s="108"/>
-      <c r="AD62" s="109"/>
+      <c r="AA62" s="72"/>
+      <c r="AB62" s="73"/>
+      <c r="AC62" s="73"/>
+      <c r="AD62" s="74"/>
       <c r="AF62" s="21"/>
       <c r="AG62" s="32"/>
       <c r="AH62" s="32"/>
@@ -4119,14 +4141,14 @@
     </row>
     <row r="63" spans="17:45" ht="15.75" thickBot="1">
       <c r="Q63" s="1"/>
-      <c r="R63" s="96"/>
-      <c r="S63" s="73"/>
-      <c r="T63" s="97"/>
+      <c r="R63" s="85"/>
+      <c r="S63" s="86"/>
+      <c r="T63" s="87"/>
       <c r="U63" s="2"/>
-      <c r="V63" s="96"/>
-      <c r="W63" s="73"/>
-      <c r="X63" s="73"/>
-      <c r="Y63" s="97"/>
+      <c r="V63" s="85"/>
+      <c r="W63" s="86"/>
+      <c r="X63" s="86"/>
+      <c r="Y63" s="87"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
@@ -4149,20 +4171,20 @@
     </row>
     <row r="64" spans="17:45">
       <c r="Q64" s="1"/>
-      <c r="R64" s="96"/>
-      <c r="S64" s="73"/>
-      <c r="T64" s="97"/>
+      <c r="R64" s="85"/>
+      <c r="S64" s="86"/>
+      <c r="T64" s="87"/>
       <c r="U64" s="2"/>
-      <c r="V64" s="96"/>
-      <c r="W64" s="73"/>
-      <c r="X64" s="73"/>
-      <c r="Y64" s="97"/>
+      <c r="V64" s="85"/>
+      <c r="W64" s="86"/>
+      <c r="X64" s="86"/>
+      <c r="Y64" s="87"/>
       <c r="Z64" s="2"/>
-      <c r="AA64" s="113" t="s">
+      <c r="AA64" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="AB64" s="114"/>
-      <c r="AC64" s="115"/>
+      <c r="AB64" s="108"/>
+      <c r="AC64" s="109"/>
       <c r="AD64" s="3"/>
       <c r="AF64" s="21"/>
       <c r="AG64" s="32"/>
@@ -4181,18 +4203,18 @@
     </row>
     <row r="65" spans="17:45">
       <c r="Q65" s="1"/>
-      <c r="R65" s="96"/>
-      <c r="S65" s="73"/>
-      <c r="T65" s="97"/>
+      <c r="R65" s="85"/>
+      <c r="S65" s="86"/>
+      <c r="T65" s="87"/>
       <c r="U65" s="2"/>
-      <c r="V65" s="96"/>
-      <c r="W65" s="73"/>
-      <c r="X65" s="73"/>
-      <c r="Y65" s="97"/>
+      <c r="V65" s="85"/>
+      <c r="W65" s="86"/>
+      <c r="X65" s="86"/>
+      <c r="Y65" s="87"/>
       <c r="Z65" s="2"/>
-      <c r="AA65" s="116"/>
-      <c r="AB65" s="66"/>
-      <c r="AC65" s="74"/>
+      <c r="AA65" s="110"/>
+      <c r="AB65" s="111"/>
+      <c r="AC65" s="112"/>
       <c r="AD65" s="3"/>
       <c r="AF65" s="21"/>
       <c r="AG65" s="32"/>
@@ -4211,18 +4233,18 @@
     </row>
     <row r="66" spans="17:45" ht="15.75" thickBot="1">
       <c r="Q66" s="1"/>
-      <c r="R66" s="110"/>
-      <c r="S66" s="111"/>
-      <c r="T66" s="112"/>
+      <c r="R66" s="100"/>
+      <c r="S66" s="101"/>
+      <c r="T66" s="102"/>
       <c r="U66" s="2"/>
-      <c r="V66" s="110"/>
-      <c r="W66" s="111"/>
-      <c r="X66" s="111"/>
-      <c r="Y66" s="112"/>
+      <c r="V66" s="100"/>
+      <c r="W66" s="101"/>
+      <c r="X66" s="101"/>
+      <c r="Y66" s="102"/>
       <c r="Z66" s="2"/>
-      <c r="AA66" s="117"/>
-      <c r="AB66" s="118"/>
-      <c r="AC66" s="119"/>
+      <c r="AA66" s="113"/>
+      <c r="AB66" s="114"/>
+      <c r="AC66" s="115"/>
       <c r="AD66" s="3"/>
       <c r="AF66" s="21"/>
       <c r="AG66" s="32"/>
@@ -4271,78 +4293,78 @@
     </row>
     <row r="68" spans="17:45" ht="15.75" thickBot="1"/>
     <row r="69" spans="17:45" ht="15.75" thickBot="1">
-      <c r="Q69" s="78" t="s">
+      <c r="Q69" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="R69" s="79"/>
-      <c r="S69" s="79"/>
-      <c r="T69" s="79"/>
-      <c r="U69" s="79"/>
-      <c r="V69" s="79"/>
-      <c r="W69" s="79"/>
-      <c r="X69" s="79"/>
-      <c r="Y69" s="79"/>
-      <c r="Z69" s="79"/>
-      <c r="AA69" s="80" t="s">
+      <c r="R69" s="76"/>
+      <c r="S69" s="76"/>
+      <c r="T69" s="76"/>
+      <c r="U69" s="76"/>
+      <c r="V69" s="76"/>
+      <c r="W69" s="76"/>
+      <c r="X69" s="76"/>
+      <c r="Y69" s="76"/>
+      <c r="Z69" s="76"/>
+      <c r="AA69" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AB69" s="81"/>
-      <c r="AC69" s="81"/>
-      <c r="AD69" s="82"/>
+      <c r="AB69" s="67"/>
+      <c r="AC69" s="67"/>
+      <c r="AD69" s="68"/>
     </row>
     <row r="70" spans="17:45">
-      <c r="Q70" s="87" t="s">
+      <c r="Q70" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="R70" s="88"/>
-      <c r="S70" s="89"/>
-      <c r="T70" s="90"/>
-      <c r="U70" s="91"/>
-      <c r="V70" s="91"/>
-      <c r="W70" s="91"/>
-      <c r="X70" s="91"/>
-      <c r="Y70" s="91"/>
-      <c r="Z70" s="92"/>
+      <c r="R70" s="150"/>
+      <c r="S70" s="151"/>
+      <c r="T70" s="82"/>
+      <c r="U70" s="83"/>
+      <c r="V70" s="83"/>
+      <c r="W70" s="83"/>
+      <c r="X70" s="83"/>
+      <c r="Y70" s="83"/>
+      <c r="Z70" s="84"/>
       <c r="AA70" s="69"/>
-      <c r="AB70" s="68"/>
-      <c r="AC70" s="68"/>
-      <c r="AD70" s="83"/>
+      <c r="AB70" s="70"/>
+      <c r="AC70" s="70"/>
+      <c r="AD70" s="71"/>
     </row>
     <row r="71" spans="17:45">
-      <c r="Q71" s="93" t="s">
+      <c r="Q71" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="R71" s="94"/>
-      <c r="S71" s="95"/>
-      <c r="T71" s="96"/>
-      <c r="U71" s="73"/>
-      <c r="V71" s="73"/>
-      <c r="W71" s="73"/>
-      <c r="X71" s="73"/>
-      <c r="Y71" s="73"/>
-      <c r="Z71" s="97"/>
+      <c r="R71" s="153"/>
+      <c r="S71" s="154"/>
+      <c r="T71" s="85"/>
+      <c r="U71" s="86"/>
+      <c r="V71" s="86"/>
+      <c r="W71" s="86"/>
+      <c r="X71" s="86"/>
+      <c r="Y71" s="86"/>
+      <c r="Z71" s="87"/>
       <c r="AA71" s="69"/>
-      <c r="AB71" s="68"/>
-      <c r="AC71" s="68"/>
-      <c r="AD71" s="83"/>
+      <c r="AB71" s="70"/>
+      <c r="AC71" s="70"/>
+      <c r="AD71" s="71"/>
     </row>
     <row r="72" spans="17:45" ht="15.75" thickBot="1">
-      <c r="Q72" s="98" t="s">
+      <c r="Q72" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="R72" s="99"/>
-      <c r="S72" s="100"/>
-      <c r="T72" s="96"/>
-      <c r="U72" s="73"/>
-      <c r="V72" s="73"/>
-      <c r="W72" s="73"/>
-      <c r="X72" s="73"/>
-      <c r="Y72" s="73"/>
-      <c r="Z72" s="97"/>
-      <c r="AA72" s="84"/>
-      <c r="AB72" s="85"/>
-      <c r="AC72" s="85"/>
-      <c r="AD72" s="86"/>
+      <c r="R72" s="121"/>
+      <c r="S72" s="122"/>
+      <c r="T72" s="85"/>
+      <c r="U72" s="86"/>
+      <c r="V72" s="86"/>
+      <c r="W72" s="86"/>
+      <c r="X72" s="86"/>
+      <c r="Y72" s="86"/>
+      <c r="Z72" s="87"/>
+      <c r="AA72" s="72"/>
+      <c r="AB72" s="73"/>
+      <c r="AC72" s="73"/>
+      <c r="AD72" s="74"/>
     </row>
     <row r="73" spans="17:45" ht="15.75" thickBot="1">
       <c r="Q73" s="50"/>
@@ -4377,43 +4399,43 @@
       <c r="AD73" s="3"/>
     </row>
     <row r="74" spans="17:45" ht="15.75" thickBot="1">
-      <c r="Q74" s="75" t="s">
+      <c r="Q74" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="R74" s="76"/>
-      <c r="S74" s="76"/>
-      <c r="T74" s="76"/>
-      <c r="U74" s="76"/>
-      <c r="V74" s="76"/>
-      <c r="W74" s="76"/>
-      <c r="X74" s="76"/>
-      <c r="Y74" s="76"/>
-      <c r="Z74" s="77"/>
-      <c r="AA74" s="75" t="s">
+      <c r="R74" s="98"/>
+      <c r="S74" s="98"/>
+      <c r="T74" s="98"/>
+      <c r="U74" s="98"/>
+      <c r="V74" s="98"/>
+      <c r="W74" s="98"/>
+      <c r="X74" s="98"/>
+      <c r="Y74" s="98"/>
+      <c r="Z74" s="99"/>
+      <c r="AA74" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="AB74" s="76"/>
-      <c r="AC74" s="76"/>
-      <c r="AD74" s="77"/>
+      <c r="AB74" s="98"/>
+      <c r="AC74" s="98"/>
+      <c r="AD74" s="99"/>
     </row>
     <row r="75" spans="17:45">
-      <c r="Q75" s="80" t="s">
+      <c r="Q75" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="R75" s="81"/>
-      <c r="S75" s="81"/>
-      <c r="T75" s="127"/>
+      <c r="R75" s="67"/>
+      <c r="S75" s="67"/>
+      <c r="T75" s="126"/>
       <c r="U75" s="51"/>
       <c r="V75" s="44"/>
       <c r="W75" s="44"/>
       <c r="X75" s="44"/>
       <c r="Y75" s="44"/>
       <c r="Z75" s="45"/>
-      <c r="AA75" s="90"/>
-      <c r="AB75" s="91"/>
-      <c r="AC75" s="91"/>
-      <c r="AD75" s="92"/>
-      <c r="AF75" t="s">
+      <c r="AA75" s="82"/>
+      <c r="AB75" s="83"/>
+      <c r="AC75" s="83"/>
+      <c r="AD75" s="84"/>
+      <c r="AF75" s="156" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4423,17 +4445,17 @@
       <c r="S76" s="13"/>
       <c r="T76" s="38"/>
       <c r="U76" s="52"/>
-      <c r="V76" s="66" t="s">
+      <c r="V76" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="W76" s="125"/>
-      <c r="X76" s="125"/>
-      <c r="Y76" s="125"/>
+      <c r="W76" s="147"/>
+      <c r="X76" s="147"/>
+      <c r="Y76" s="147"/>
       <c r="Z76" s="53"/>
-      <c r="AA76" s="96"/>
-      <c r="AB76" s="73"/>
-      <c r="AC76" s="73"/>
-      <c r="AD76" s="97"/>
+      <c r="AA76" s="85"/>
+      <c r="AB76" s="86"/>
+      <c r="AC76" s="86"/>
+      <c r="AD76" s="87"/>
     </row>
     <row r="77" spans="17:45">
       <c r="Q77" s="41"/>
@@ -4446,16 +4468,16 @@
       <c r="T77" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="V77" s="125"/>
-      <c r="W77" s="125"/>
-      <c r="X77" s="125"/>
-      <c r="Y77" s="125"/>
+      <c r="V77" s="147"/>
+      <c r="W77" s="147"/>
+      <c r="X77" s="147"/>
+      <c r="Y77" s="147"/>
       <c r="Z77" s="53"/>
-      <c r="AA77" s="96"/>
-      <c r="AB77" s="73"/>
-      <c r="AC77" s="73"/>
-      <c r="AD77" s="97"/>
-      <c r="AF77" t="s">
+      <c r="AA77" s="85"/>
+      <c r="AB77" s="86"/>
+      <c r="AC77" s="86"/>
+      <c r="AD77" s="87"/>
+      <c r="AF77" s="156" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4471,15 +4493,15 @@
         <v>0</v>
       </c>
       <c r="U78" s="52"/>
-      <c r="V78" s="125"/>
-      <c r="W78" s="125"/>
-      <c r="X78" s="125"/>
-      <c r="Y78" s="125"/>
+      <c r="V78" s="147"/>
+      <c r="W78" s="147"/>
+      <c r="X78" s="147"/>
+      <c r="Y78" s="147"/>
       <c r="Z78" s="53"/>
-      <c r="AA78" s="96"/>
-      <c r="AB78" s="73"/>
-      <c r="AC78" s="73"/>
-      <c r="AD78" s="97"/>
+      <c r="AA78" s="85"/>
+      <c r="AB78" s="86"/>
+      <c r="AC78" s="86"/>
+      <c r="AD78" s="87"/>
     </row>
     <row r="79" spans="17:45">
       <c r="Q79" s="41"/>
@@ -4493,16 +4515,16 @@
         <v>31</v>
       </c>
       <c r="U79" s="52"/>
-      <c r="V79" s="125"/>
-      <c r="W79" s="125"/>
-      <c r="X79" s="125"/>
-      <c r="Y79" s="125"/>
+      <c r="V79" s="147"/>
+      <c r="W79" s="147"/>
+      <c r="X79" s="147"/>
+      <c r="Y79" s="147"/>
       <c r="Z79" s="53"/>
-      <c r="AA79" s="96"/>
-      <c r="AB79" s="73"/>
-      <c r="AC79" s="73"/>
-      <c r="AD79" s="97"/>
-      <c r="AF79" t="s">
+      <c r="AA79" s="85"/>
+      <c r="AB79" s="86"/>
+      <c r="AC79" s="86"/>
+      <c r="AD79" s="87"/>
+      <c r="AF79" s="156" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4512,15 +4534,15 @@
       <c r="S80" s="13"/>
       <c r="T80" s="38"/>
       <c r="U80" s="52"/>
-      <c r="V80" s="125"/>
-      <c r="W80" s="125"/>
-      <c r="X80" s="125"/>
-      <c r="Y80" s="125"/>
+      <c r="V80" s="147"/>
+      <c r="W80" s="147"/>
+      <c r="X80" s="147"/>
+      <c r="Y80" s="147"/>
       <c r="Z80" s="53"/>
-      <c r="AA80" s="96"/>
-      <c r="AB80" s="73"/>
-      <c r="AC80" s="73"/>
-      <c r="AD80" s="97"/>
+      <c r="AA80" s="85"/>
+      <c r="AB80" s="86"/>
+      <c r="AC80" s="86"/>
+      <c r="AD80" s="87"/>
     </row>
     <row r="81" spans="17:32">
       <c r="Q81" s="41"/>
@@ -4528,16 +4550,16 @@
       <c r="S81" s="13"/>
       <c r="T81" s="38"/>
       <c r="U81" s="52"/>
-      <c r="V81" s="125"/>
-      <c r="W81" s="125"/>
-      <c r="X81" s="125"/>
-      <c r="Y81" s="125"/>
+      <c r="V81" s="147"/>
+      <c r="W81" s="147"/>
+      <c r="X81" s="147"/>
+      <c r="Y81" s="147"/>
       <c r="Z81" s="53"/>
-      <c r="AA81" s="96"/>
-      <c r="AB81" s="73"/>
-      <c r="AC81" s="73"/>
-      <c r="AD81" s="97"/>
-      <c r="AF81" t="s">
+      <c r="AA81" s="85"/>
+      <c r="AB81" s="86"/>
+      <c r="AC81" s="86"/>
+      <c r="AD81" s="87"/>
+      <c r="AF81" s="156" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4547,142 +4569,142 @@
       <c r="S82" s="35"/>
       <c r="T82" s="40"/>
       <c r="U82" s="52"/>
-      <c r="V82" s="125"/>
-      <c r="W82" s="125"/>
-      <c r="X82" s="125"/>
-      <c r="Y82" s="125"/>
+      <c r="V82" s="147"/>
+      <c r="W82" s="147"/>
+      <c r="X82" s="147"/>
+      <c r="Y82" s="147"/>
       <c r="Z82" s="53"/>
-      <c r="AA82" s="96"/>
-      <c r="AB82" s="73"/>
-      <c r="AC82" s="73"/>
-      <c r="AD82" s="97"/>
+      <c r="AA82" s="85"/>
+      <c r="AB82" s="86"/>
+      <c r="AC82" s="86"/>
+      <c r="AD82" s="87"/>
     </row>
     <row r="83" spans="17:32">
-      <c r="Q83" s="128" t="s">
+      <c r="Q83" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="R83" s="102"/>
-      <c r="S83" s="102"/>
-      <c r="T83" s="103"/>
+      <c r="R83" s="141"/>
+      <c r="S83" s="141"/>
+      <c r="T83" s="128"/>
       <c r="U83" s="52"/>
-      <c r="V83" s="125"/>
-      <c r="W83" s="125"/>
-      <c r="X83" s="125"/>
-      <c r="Y83" s="125"/>
+      <c r="V83" s="147"/>
+      <c r="W83" s="147"/>
+      <c r="X83" s="147"/>
+      <c r="Y83" s="147"/>
       <c r="Z83" s="53"/>
-      <c r="AA83" s="96"/>
-      <c r="AB83" s="73"/>
-      <c r="AC83" s="73"/>
-      <c r="AD83" s="97"/>
+      <c r="AA83" s="85"/>
+      <c r="AB83" s="86"/>
+      <c r="AC83" s="86"/>
+      <c r="AD83" s="87"/>
       <c r="AF83" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="84" spans="17:32" ht="15.75" thickBot="1">
-      <c r="Q84" s="129" t="s">
+      <c r="Q84" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="R84" s="130"/>
-      <c r="S84" s="130"/>
-      <c r="T84" s="131"/>
+      <c r="R84" s="143"/>
+      <c r="S84" s="143"/>
+      <c r="T84" s="144"/>
       <c r="U84" s="52"/>
-      <c r="V84" s="125"/>
-      <c r="W84" s="125"/>
-      <c r="X84" s="125"/>
-      <c r="Y84" s="125"/>
+      <c r="V84" s="147"/>
+      <c r="W84" s="147"/>
+      <c r="X84" s="147"/>
+      <c r="Y84" s="147"/>
       <c r="Z84" s="53"/>
-      <c r="AA84" s="110"/>
-      <c r="AB84" s="111"/>
-      <c r="AC84" s="111"/>
-      <c r="AD84" s="112"/>
+      <c r="AA84" s="100"/>
+      <c r="AB84" s="101"/>
+      <c r="AC84" s="101"/>
+      <c r="AD84" s="102"/>
     </row>
     <row r="85" spans="17:32" ht="15.75" thickBot="1">
-      <c r="Q85" s="116"/>
-      <c r="R85" s="66"/>
-      <c r="S85" s="66"/>
-      <c r="T85" s="132"/>
+      <c r="Q85" s="110"/>
+      <c r="R85" s="111"/>
+      <c r="S85" s="111"/>
+      <c r="T85" s="145"/>
       <c r="U85" s="52"/>
-      <c r="V85" s="125"/>
-      <c r="W85" s="125"/>
-      <c r="X85" s="125"/>
-      <c r="Y85" s="125"/>
+      <c r="V85" s="147"/>
+      <c r="W85" s="147"/>
+      <c r="X85" s="147"/>
+      <c r="Y85" s="147"/>
       <c r="Z85" s="53"/>
-      <c r="AA85" s="75" t="s">
+      <c r="AA85" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="AB85" s="76"/>
-      <c r="AC85" s="76"/>
-      <c r="AD85" s="77"/>
+      <c r="AB85" s="98"/>
+      <c r="AC85" s="98"/>
+      <c r="AD85" s="99"/>
       <c r="AF85" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="86" spans="17:32">
-      <c r="Q86" s="116"/>
-      <c r="R86" s="66"/>
-      <c r="S86" s="66"/>
-      <c r="T86" s="132"/>
+      <c r="Q86" s="110"/>
+      <c r="R86" s="111"/>
+      <c r="S86" s="111"/>
+      <c r="T86" s="145"/>
       <c r="U86" s="52"/>
-      <c r="V86" s="125"/>
-      <c r="W86" s="125"/>
-      <c r="X86" s="125"/>
-      <c r="Y86" s="125"/>
+      <c r="V86" s="147"/>
+      <c r="W86" s="147"/>
+      <c r="X86" s="147"/>
+      <c r="Y86" s="147"/>
       <c r="Z86" s="53"/>
-      <c r="AA86" s="90"/>
-      <c r="AB86" s="91"/>
-      <c r="AC86" s="91"/>
-      <c r="AD86" s="92"/>
+      <c r="AA86" s="82"/>
+      <c r="AB86" s="83"/>
+      <c r="AC86" s="83"/>
+      <c r="AD86" s="84"/>
     </row>
     <row r="87" spans="17:32">
-      <c r="Q87" s="116"/>
-      <c r="R87" s="66"/>
-      <c r="S87" s="66"/>
-      <c r="T87" s="132"/>
+      <c r="Q87" s="110"/>
+      <c r="R87" s="111"/>
+      <c r="S87" s="111"/>
+      <c r="T87" s="145"/>
       <c r="U87" s="52"/>
-      <c r="V87" s="125"/>
-      <c r="W87" s="125"/>
-      <c r="X87" s="125"/>
-      <c r="Y87" s="125"/>
+      <c r="V87" s="147"/>
+      <c r="W87" s="147"/>
+      <c r="X87" s="147"/>
+      <c r="Y87" s="147"/>
       <c r="Z87" s="53"/>
-      <c r="AA87" s="96"/>
-      <c r="AB87" s="73"/>
-      <c r="AC87" s="73"/>
-      <c r="AD87" s="97"/>
+      <c r="AA87" s="85"/>
+      <c r="AB87" s="86"/>
+      <c r="AC87" s="86"/>
+      <c r="AD87" s="87"/>
       <c r="AF87" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="88" spans="17:32">
-      <c r="Q88" s="116"/>
-      <c r="R88" s="66"/>
-      <c r="S88" s="66"/>
-      <c r="T88" s="132"/>
+      <c r="Q88" s="110"/>
+      <c r="R88" s="111"/>
+      <c r="S88" s="111"/>
+      <c r="T88" s="145"/>
       <c r="U88" s="52"/>
-      <c r="V88" s="125"/>
-      <c r="W88" s="125"/>
-      <c r="X88" s="125"/>
-      <c r="Y88" s="125"/>
+      <c r="V88" s="147"/>
+      <c r="W88" s="147"/>
+      <c r="X88" s="147"/>
+      <c r="Y88" s="147"/>
       <c r="Z88" s="53"/>
-      <c r="AA88" s="96"/>
-      <c r="AB88" s="73"/>
-      <c r="AC88" s="73"/>
-      <c r="AD88" s="97"/>
+      <c r="AA88" s="85"/>
+      <c r="AB88" s="86"/>
+      <c r="AC88" s="86"/>
+      <c r="AD88" s="87"/>
     </row>
     <row r="89" spans="17:32" ht="15.75" thickBot="1">
-      <c r="Q89" s="117"/>
-      <c r="R89" s="118"/>
-      <c r="S89" s="118"/>
-      <c r="T89" s="133"/>
+      <c r="Q89" s="113"/>
+      <c r="R89" s="114"/>
+      <c r="S89" s="114"/>
+      <c r="T89" s="146"/>
       <c r="U89" s="54"/>
       <c r="V89" s="55"/>
       <c r="W89" s="55"/>
       <c r="X89" s="55"/>
       <c r="Y89" s="55"/>
       <c r="Z89" s="56"/>
-      <c r="AA89" s="104"/>
-      <c r="AB89" s="105"/>
-      <c r="AC89" s="105"/>
-      <c r="AD89" s="106"/>
+      <c r="AA89" s="119"/>
+      <c r="AB89" s="90"/>
+      <c r="AC89" s="90"/>
+      <c r="AD89" s="91"/>
       <c r="AF89" t="s">
         <v>95</v>
       </c>
@@ -4698,107 +4720,107 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
-      <c r="AA90" s="96"/>
-      <c r="AB90" s="73"/>
-      <c r="AC90" s="73"/>
-      <c r="AD90" s="97"/>
+      <c r="AA90" s="85"/>
+      <c r="AB90" s="86"/>
+      <c r="AC90" s="86"/>
+      <c r="AD90" s="87"/>
     </row>
     <row r="91" spans="17:32">
       <c r="Q91" s="1"/>
-      <c r="R91" s="70" t="s">
+      <c r="R91" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="S91" s="71"/>
-      <c r="T91" s="72"/>
+      <c r="S91" s="117"/>
+      <c r="T91" s="118"/>
       <c r="U91" s="2"/>
-      <c r="V91" s="70" t="s">
+      <c r="V91" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="W91" s="71"/>
-      <c r="X91" s="71"/>
-      <c r="Y91" s="72"/>
+      <c r="W91" s="117"/>
+      <c r="X91" s="117"/>
+      <c r="Y91" s="118"/>
       <c r="Z91" s="2"/>
-      <c r="AA91" s="98"/>
-      <c r="AB91" s="99"/>
-      <c r="AC91" s="99"/>
-      <c r="AD91" s="100"/>
+      <c r="AA91" s="120"/>
+      <c r="AB91" s="121"/>
+      <c r="AC91" s="121"/>
+      <c r="AD91" s="122"/>
     </row>
     <row r="92" spans="17:32">
       <c r="Q92" s="1"/>
-      <c r="R92" s="96"/>
-      <c r="S92" s="73"/>
-      <c r="T92" s="97"/>
+      <c r="R92" s="85"/>
+      <c r="S92" s="86"/>
+      <c r="T92" s="87"/>
       <c r="U92" s="2"/>
-      <c r="V92" s="96"/>
-      <c r="W92" s="73"/>
-      <c r="X92" s="73"/>
-      <c r="Y92" s="97"/>
+      <c r="V92" s="85"/>
+      <c r="W92" s="86"/>
+      <c r="X92" s="86"/>
+      <c r="Y92" s="87"/>
       <c r="Z92" s="2"/>
-      <c r="AA92" s="104"/>
-      <c r="AB92" s="105"/>
-      <c r="AC92" s="105"/>
-      <c r="AD92" s="106"/>
+      <c r="AA92" s="119"/>
+      <c r="AB92" s="90"/>
+      <c r="AC92" s="90"/>
+      <c r="AD92" s="91"/>
     </row>
     <row r="93" spans="17:32">
       <c r="Q93" s="1"/>
-      <c r="R93" s="96"/>
-      <c r="S93" s="73"/>
-      <c r="T93" s="97"/>
+      <c r="R93" s="85"/>
+      <c r="S93" s="86"/>
+      <c r="T93" s="87"/>
       <c r="U93" s="2"/>
-      <c r="V93" s="96"/>
-      <c r="W93" s="73"/>
-      <c r="X93" s="73"/>
-      <c r="Y93" s="97"/>
+      <c r="V93" s="85"/>
+      <c r="W93" s="86"/>
+      <c r="X93" s="86"/>
+      <c r="Y93" s="87"/>
       <c r="Z93" s="2"/>
-      <c r="AA93" s="96"/>
-      <c r="AB93" s="73"/>
-      <c r="AC93" s="73"/>
-      <c r="AD93" s="97"/>
+      <c r="AA93" s="85"/>
+      <c r="AB93" s="86"/>
+      <c r="AC93" s="86"/>
+      <c r="AD93" s="87"/>
     </row>
     <row r="94" spans="17:32">
       <c r="Q94" s="1"/>
-      <c r="R94" s="96"/>
-      <c r="S94" s="73"/>
-      <c r="T94" s="97"/>
+      <c r="R94" s="85"/>
+      <c r="S94" s="86"/>
+      <c r="T94" s="87"/>
       <c r="U94" s="2"/>
-      <c r="V94" s="96"/>
-      <c r="W94" s="73"/>
-      <c r="X94" s="73"/>
-      <c r="Y94" s="97"/>
+      <c r="V94" s="85"/>
+      <c r="W94" s="86"/>
+      <c r="X94" s="86"/>
+      <c r="Y94" s="87"/>
       <c r="Z94" s="2"/>
-      <c r="AA94" s="98"/>
-      <c r="AB94" s="99"/>
-      <c r="AC94" s="99"/>
-      <c r="AD94" s="100"/>
+      <c r="AA94" s="120"/>
+      <c r="AB94" s="121"/>
+      <c r="AC94" s="121"/>
+      <c r="AD94" s="122"/>
     </row>
     <row r="95" spans="17:32" ht="15.75" thickBot="1">
       <c r="Q95" s="1"/>
-      <c r="R95" s="96"/>
-      <c r="S95" s="73"/>
-      <c r="T95" s="97"/>
+      <c r="R95" s="85"/>
+      <c r="S95" s="86"/>
+      <c r="T95" s="87"/>
       <c r="U95" s="2"/>
-      <c r="V95" s="96"/>
-      <c r="W95" s="73"/>
-      <c r="X95" s="73"/>
-      <c r="Y95" s="97"/>
+      <c r="V95" s="85"/>
+      <c r="W95" s="86"/>
+      <c r="X95" s="86"/>
+      <c r="Y95" s="87"/>
       <c r="Z95" s="2"/>
-      <c r="AA95" s="107" t="s">
+      <c r="AA95" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="AB95" s="108"/>
-      <c r="AC95" s="108"/>
-      <c r="AD95" s="109"/>
+      <c r="AB95" s="124"/>
+      <c r="AC95" s="124"/>
+      <c r="AD95" s="125"/>
     </row>
     <row r="96" spans="17:32" ht="15.75" thickBot="1">
       <c r="Q96" s="1"/>
-      <c r="R96" s="96"/>
-      <c r="S96" s="73"/>
-      <c r="T96" s="97"/>
+      <c r="R96" s="85"/>
+      <c r="S96" s="86"/>
+      <c r="T96" s="87"/>
       <c r="U96" s="2"/>
-      <c r="V96" s="96"/>
-      <c r="W96" s="73"/>
-      <c r="X96" s="73"/>
-      <c r="Y96" s="97"/>
+      <c r="V96" s="85"/>
+      <c r="W96" s="86"/>
+      <c r="X96" s="86"/>
+      <c r="Y96" s="87"/>
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
@@ -4807,52 +4829,52 @@
     </row>
     <row r="97" spans="17:30">
       <c r="Q97" s="1"/>
-      <c r="R97" s="96"/>
-      <c r="S97" s="73"/>
-      <c r="T97" s="97"/>
+      <c r="R97" s="85"/>
+      <c r="S97" s="86"/>
+      <c r="T97" s="87"/>
       <c r="U97" s="2"/>
-      <c r="V97" s="96"/>
-      <c r="W97" s="73"/>
-      <c r="X97" s="73"/>
-      <c r="Y97" s="97"/>
+      <c r="V97" s="85"/>
+      <c r="W97" s="86"/>
+      <c r="X97" s="86"/>
+      <c r="Y97" s="87"/>
       <c r="Z97" s="2"/>
-      <c r="AA97" s="113" t="s">
+      <c r="AA97" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="AB97" s="114"/>
-      <c r="AC97" s="115"/>
+      <c r="AB97" s="108"/>
+      <c r="AC97" s="109"/>
       <c r="AD97" s="3"/>
     </row>
     <row r="98" spans="17:30">
       <c r="Q98" s="1"/>
-      <c r="R98" s="96"/>
-      <c r="S98" s="73"/>
-      <c r="T98" s="97"/>
+      <c r="R98" s="85"/>
+      <c r="S98" s="86"/>
+      <c r="T98" s="87"/>
       <c r="U98" s="2"/>
-      <c r="V98" s="96"/>
-      <c r="W98" s="73"/>
-      <c r="X98" s="73"/>
-      <c r="Y98" s="97"/>
+      <c r="V98" s="85"/>
+      <c r="W98" s="86"/>
+      <c r="X98" s="86"/>
+      <c r="Y98" s="87"/>
       <c r="Z98" s="2"/>
-      <c r="AA98" s="116"/>
-      <c r="AB98" s="66"/>
-      <c r="AC98" s="74"/>
+      <c r="AA98" s="110"/>
+      <c r="AB98" s="111"/>
+      <c r="AC98" s="112"/>
       <c r="AD98" s="3"/>
     </row>
     <row r="99" spans="17:30" ht="15.75" thickBot="1">
       <c r="Q99" s="1"/>
-      <c r="R99" s="110"/>
-      <c r="S99" s="111"/>
-      <c r="T99" s="112"/>
+      <c r="R99" s="100"/>
+      <c r="S99" s="101"/>
+      <c r="T99" s="102"/>
       <c r="U99" s="2"/>
-      <c r="V99" s="110"/>
-      <c r="W99" s="111"/>
-      <c r="X99" s="111"/>
-      <c r="Y99" s="112"/>
+      <c r="V99" s="100"/>
+      <c r="W99" s="101"/>
+      <c r="X99" s="101"/>
+      <c r="Y99" s="102"/>
       <c r="Z99" s="2"/>
-      <c r="AA99" s="117"/>
-      <c r="AB99" s="118"/>
-      <c r="AC99" s="119"/>
+      <c r="AA99" s="113"/>
+      <c r="AB99" s="114"/>
+      <c r="AC99" s="115"/>
       <c r="AD99" s="3"/>
     </row>
     <row r="100" spans="17:30" ht="15.75" thickBot="1">
@@ -4872,7 +4894,161 @@
       <c r="AD100" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="181">
+  <mergeCells count="178">
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AP16:AP21"/>
+    <mergeCell ref="AO20:AO25"/>
+    <mergeCell ref="AP22:AP25"/>
+    <mergeCell ref="AA53:AD62"/>
+    <mergeCell ref="AK16:AK21"/>
+    <mergeCell ref="AJ20:AJ25"/>
+    <mergeCell ref="AM16:AM21"/>
+    <mergeCell ref="AL20:AL25"/>
+    <mergeCell ref="AM22:AM25"/>
+    <mergeCell ref="AL51:AR51"/>
+    <mergeCell ref="AQ19:AQ24"/>
+    <mergeCell ref="AQ25:AQ28"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AR23:AR28"/>
+    <mergeCell ref="AN11:AN27"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AG21:AG22"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AH44:AI48"/>
+    <mergeCell ref="AH50:AI50"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="AH20:AH25"/>
+    <mergeCell ref="AI16:AI21"/>
+    <mergeCell ref="AF36:AO36"/>
+    <mergeCell ref="AP36:AS39"/>
+    <mergeCell ref="AF37:AH37"/>
+    <mergeCell ref="AI37:AO37"/>
+    <mergeCell ref="AF38:AH38"/>
+    <mergeCell ref="AI38:AO38"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AP55:AR57"/>
+    <mergeCell ref="AH52:AI52"/>
+    <mergeCell ref="AL42:AR42"/>
+    <mergeCell ref="AO46:AR47"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AF2:AO2"/>
+    <mergeCell ref="AP2:AS5"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="W9:Y21"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="Q7:Z7"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="AA2:AD5"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T4:Z4"/>
+    <mergeCell ref="T5:Z5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="AG7:AR7"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R25:T28"/>
+    <mergeCell ref="V25:Y26"/>
+    <mergeCell ref="AA25:AD27"/>
+    <mergeCell ref="V27:Y28"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="R29:T32"/>
+    <mergeCell ref="V29:Y30"/>
+    <mergeCell ref="AA30:AC32"/>
+    <mergeCell ref="V31:Y32"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="AA19:AD21"/>
+    <mergeCell ref="AA22:AD24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="AA8:AD17"/>
+    <mergeCell ref="AA74:AD74"/>
+    <mergeCell ref="Q75:T75"/>
+    <mergeCell ref="AA75:AD84"/>
+    <mergeCell ref="Q83:T83"/>
+    <mergeCell ref="Q84:T89"/>
+    <mergeCell ref="AA69:AD72"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="T70:Z70"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="T71:Z71"/>
+    <mergeCell ref="AA92:AD94"/>
+    <mergeCell ref="V94:Y95"/>
+    <mergeCell ref="AA95:AD95"/>
+    <mergeCell ref="R96:T99"/>
+    <mergeCell ref="V96:Y97"/>
+    <mergeCell ref="AA97:AC99"/>
+    <mergeCell ref="V98:Y99"/>
+    <mergeCell ref="AA85:AD85"/>
+    <mergeCell ref="AA86:AD88"/>
+    <mergeCell ref="AA89:AD91"/>
+    <mergeCell ref="R91:T91"/>
+    <mergeCell ref="V91:Y91"/>
+    <mergeCell ref="T72:Z72"/>
+    <mergeCell ref="R92:T95"/>
+    <mergeCell ref="Q69:Z69"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="V46:Y47"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V51:Y52"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q51:T56"/>
+    <mergeCell ref="R59:T62"/>
+    <mergeCell ref="V59:Y60"/>
+    <mergeCell ref="V76:Y88"/>
+    <mergeCell ref="V92:Y93"/>
+    <mergeCell ref="Q74:Z74"/>
+    <mergeCell ref="V61:Y62"/>
+    <mergeCell ref="R63:T66"/>
+    <mergeCell ref="V63:Y64"/>
+    <mergeCell ref="AA64:AC66"/>
+    <mergeCell ref="V65:Y66"/>
+    <mergeCell ref="AA52:AD52"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="V58:Y58"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:E32"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q41:Z41"/>
+    <mergeCell ref="AA41:AD41"/>
+    <mergeCell ref="AA42:AD51"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="AA36:AD39"/>
+    <mergeCell ref="T37:Z37"/>
+    <mergeCell ref="T38:Z38"/>
+    <mergeCell ref="T39:Z39"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="G29:J30"/>
+    <mergeCell ref="G31:J32"/>
+    <mergeCell ref="L30:N32"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J26"/>
+    <mergeCell ref="G27:J28"/>
+    <mergeCell ref="L19:O21"/>
+    <mergeCell ref="L22:O24"/>
+    <mergeCell ref="L25:O27"/>
+    <mergeCell ref="L28:O28"/>
     <mergeCell ref="L2:O5"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:D3"/>
@@ -4896,165 +5072,14 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G29:J30"/>
-    <mergeCell ref="G31:J32"/>
-    <mergeCell ref="L30:N32"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J26"/>
-    <mergeCell ref="G27:J28"/>
-    <mergeCell ref="L19:O21"/>
-    <mergeCell ref="L22:O24"/>
-    <mergeCell ref="L25:O27"/>
-    <mergeCell ref="L28:O28"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:E32"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q41:Z41"/>
-    <mergeCell ref="AA41:AD41"/>
-    <mergeCell ref="AA42:AD51"/>
-    <mergeCell ref="Q36:Z36"/>
-    <mergeCell ref="AA36:AD39"/>
-    <mergeCell ref="T37:Z37"/>
-    <mergeCell ref="T38:Z38"/>
-    <mergeCell ref="T39:Z39"/>
-    <mergeCell ref="AA59:AD61"/>
-    <mergeCell ref="V61:Y62"/>
-    <mergeCell ref="AA62:AD62"/>
-    <mergeCell ref="R63:T66"/>
-    <mergeCell ref="V63:Y64"/>
-    <mergeCell ref="AA64:AC66"/>
-    <mergeCell ref="V65:Y66"/>
-    <mergeCell ref="AA52:AD52"/>
-    <mergeCell ref="AA53:AD55"/>
-    <mergeCell ref="AA56:AD58"/>
-    <mergeCell ref="R58:T58"/>
-    <mergeCell ref="V58:Y58"/>
-    <mergeCell ref="T72:Z72"/>
-    <mergeCell ref="R92:T95"/>
-    <mergeCell ref="Q69:Z69"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V46:Y47"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V51:Y52"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q51:T56"/>
-    <mergeCell ref="R59:T62"/>
-    <mergeCell ref="V59:Y60"/>
-    <mergeCell ref="V76:Y88"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V92:Y93"/>
-    <mergeCell ref="AA92:AD94"/>
-    <mergeCell ref="V94:Y95"/>
-    <mergeCell ref="AA95:AD95"/>
-    <mergeCell ref="R96:T99"/>
-    <mergeCell ref="V96:Y97"/>
-    <mergeCell ref="AA97:AC99"/>
-    <mergeCell ref="V98:Y99"/>
-    <mergeCell ref="AA85:AD85"/>
-    <mergeCell ref="AA86:AD88"/>
-    <mergeCell ref="AA89:AD91"/>
-    <mergeCell ref="R91:T91"/>
-    <mergeCell ref="V91:Y91"/>
-    <mergeCell ref="Q74:Z74"/>
-    <mergeCell ref="AA74:AD74"/>
-    <mergeCell ref="Q75:T75"/>
-    <mergeCell ref="AA75:AD84"/>
-    <mergeCell ref="Q83:T83"/>
-    <mergeCell ref="Q84:T89"/>
-    <mergeCell ref="AA69:AD72"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="T70:Z70"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R25:T28"/>
-    <mergeCell ref="V25:Y26"/>
-    <mergeCell ref="AA25:AD27"/>
-    <mergeCell ref="V27:Y28"/>
-    <mergeCell ref="AA28:AD28"/>
-    <mergeCell ref="R29:T32"/>
-    <mergeCell ref="V29:Y30"/>
-    <mergeCell ref="AA30:AC32"/>
-    <mergeCell ref="V31:Y32"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="AA19:AD21"/>
-    <mergeCell ref="AA22:AD24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="AA8:AD17"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T71:Z71"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AF2:AO2"/>
-    <mergeCell ref="AP2:AS5"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="W9:Y21"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="Q7:Z7"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="AA2:AD5"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T4:Z4"/>
-    <mergeCell ref="T5:Z5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="AG7:AR7"/>
-    <mergeCell ref="AF36:AO36"/>
-    <mergeCell ref="AP36:AS39"/>
-    <mergeCell ref="AF37:AH37"/>
-    <mergeCell ref="AI37:AO37"/>
-    <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="AI38:AO38"/>
-    <mergeCell ref="AF39:AH39"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AP55:AR57"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AG21:AG22"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AH44:AI48"/>
-    <mergeCell ref="AH50:AI50"/>
-    <mergeCell ref="AH52:AI52"/>
-    <mergeCell ref="AL42:AR42"/>
-    <mergeCell ref="AO46:AR47"/>
-    <mergeCell ref="AG27:AG28"/>
-    <mergeCell ref="AH20:AH25"/>
-    <mergeCell ref="AI16:AI21"/>
-    <mergeCell ref="AK16:AK21"/>
-    <mergeCell ref="AJ20:AJ25"/>
-    <mergeCell ref="AM16:AM21"/>
-    <mergeCell ref="AL20:AL25"/>
-    <mergeCell ref="AM22:AM25"/>
-    <mergeCell ref="AL51:AR51"/>
-    <mergeCell ref="AQ19:AQ24"/>
-    <mergeCell ref="AQ25:AQ28"/>
-    <mergeCell ref="AQ13:AQ14"/>
-    <mergeCell ref="AR23:AR28"/>
-    <mergeCell ref="AN11:AN27"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AP16:AP21"/>
-    <mergeCell ref="AO20:AO25"/>
-    <mergeCell ref="AP22:AP25"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AF75" r:id="rId1"/>
+    <hyperlink ref="AF77" r:id="rId2"/>
+    <hyperlink ref="AF79" r:id="rId3"/>
+    <hyperlink ref="AF81" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
